--- a/tabele_praca.xlsx
+++ b/tabele_praca.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16245" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16245" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Algorytmy" sheetId="3" r:id="rId1"/>
     <sheet name="Dokładność" sheetId="10" r:id="rId2"/>
     <sheet name="Blad wzgledem alg55" sheetId="12" r:id="rId3"/>
-    <sheet name="Funkcja podobieństwa" sheetId="5" r:id="rId4"/>
-    <sheet name="Metoda tworzenia szablonu" sheetId="6" r:id="rId5"/>
-    <sheet name="Strategia tworzenia szablonu" sheetId="7" r:id="rId6"/>
-    <sheet name="Liczba szablonów" sheetId="8" r:id="rId7"/>
-    <sheet name="Strategia podejmowania decyzji" sheetId="9" r:id="rId8"/>
-    <sheet name="Grupy" sheetId="13" r:id="rId9"/>
+    <sheet name="Testy parowe z alg55" sheetId="15" r:id="rId4"/>
+    <sheet name="Funkcja podobieństwa" sheetId="5" r:id="rId5"/>
+    <sheet name="Metoda tworzenia szablonu" sheetId="6" r:id="rId6"/>
+    <sheet name="Strategia tworzenia szablonu" sheetId="7" r:id="rId7"/>
+    <sheet name="Liczba szablonów" sheetId="8" r:id="rId8"/>
+    <sheet name="Strategia podejmowania decyzji" sheetId="9" r:id="rId9"/>
+    <sheet name="Grupy" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3057" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3454" uniqueCount="302">
   <si>
     <t>Algorytm</t>
   </si>
@@ -924,6 +925,36 @@
   <si>
     <t>Cała tabela</t>
   </si>
+  <si>
+    <t>x vs. alg 55</t>
+  </si>
+  <si>
+    <t>Statystyka T</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wynik istotny statystycznie na poziomie istotności </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>α</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -936,7 +967,7 @@
     <numFmt numFmtId="167" formatCode="\+0.00000%;\-0.00000%;0.00000%"/>
     <numFmt numFmtId="168" formatCode="0.00000%;"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1004,8 +1035,15 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1120,8 +1158,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1194,6 +1238,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1204,7 +1272,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1363,6 +1431,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1413,9 +1490,52 @@
     <xf numFmtId="164" fontId="5" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8" hidden="1"/>
@@ -16017,12 +16137,1209 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="H1" s="62" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="J1" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="K1" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="L1" s="62" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1" s="62" t="s">
+        <v>202</v>
+      </c>
+      <c r="N1" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="O1" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="P1" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q1" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="R1" s="63" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="81" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="66">
+        <v>0.14782451550721151</v>
+      </c>
+      <c r="E2" s="68">
+        <v>0.69850574712643676</v>
+      </c>
+      <c r="F2" s="66">
+        <v>0.53827956989247305</v>
+      </c>
+      <c r="G2" s="68">
+        <v>0.97830330330330317</v>
+      </c>
+      <c r="H2" s="68">
+        <v>0.84269162210338666</v>
+      </c>
+      <c r="I2" s="68">
+        <v>0.73735672720860523</v>
+      </c>
+      <c r="J2" s="68">
+        <v>0.96</v>
+      </c>
+      <c r="K2" s="68">
+        <v>0.84693611587149231</v>
+      </c>
+      <c r="L2" s="68">
+        <v>0.96103896103896103</v>
+      </c>
+      <c r="M2" s="66">
+        <v>0.99437928655951391</v>
+      </c>
+      <c r="N2" s="68">
+        <v>0.66557422969187674</v>
+      </c>
+      <c r="O2" s="68">
+        <v>0.86464646464646466</v>
+      </c>
+      <c r="P2" s="66">
+        <v>0.96078431372549</v>
+      </c>
+      <c r="Q2" s="68">
+        <v>0.52762561218937054</v>
+      </c>
+      <c r="R2" s="68">
+        <v>0.841015065999418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="82"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="67">
+        <v>0.17610753502461191</v>
+      </c>
+      <c r="E3" s="69">
+        <v>0.69256978653530388</v>
+      </c>
+      <c r="F3" s="67">
+        <v>0.54849462365591395</v>
+      </c>
+      <c r="G3" s="69">
+        <v>0.97560060060060061</v>
+      </c>
+      <c r="H3" s="69">
+        <v>0.58672014260249561</v>
+      </c>
+      <c r="I3" s="69">
+        <v>0.72887497795803213</v>
+      </c>
+      <c r="J3" s="67">
+        <v>0.96</v>
+      </c>
+      <c r="K3" s="69">
+        <v>0.81538417742315183</v>
+      </c>
+      <c r="L3" s="69">
+        <v>0.92943722943722951</v>
+      </c>
+      <c r="M3" s="67">
+        <v>0.99837928358634964</v>
+      </c>
+      <c r="N3" s="69">
+        <v>0.5047759103641456</v>
+      </c>
+      <c r="O3" s="69">
+        <v>0.79797979797979812</v>
+      </c>
+      <c r="P3" s="67">
+        <v>0.97189542483660118</v>
+      </c>
+      <c r="Q3" s="69">
+        <v>0.31398966080174129</v>
+      </c>
+      <c r="R3" s="69">
+        <v>0.73258480955862648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="82"/>
+      <c r="B4" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="66">
+        <v>0.12889286656798971</v>
+      </c>
+      <c r="E4" s="68">
+        <v>0.70552545155993429</v>
+      </c>
+      <c r="F4" s="66">
+        <v>0.51537634408602151</v>
+      </c>
+      <c r="G4" s="66">
+        <v>0.97830330330330317</v>
+      </c>
+      <c r="H4" s="65">
+        <v>0.8367201426024955</v>
+      </c>
+      <c r="I4" s="66">
+        <v>0.72140715923117615</v>
+      </c>
+      <c r="J4" s="68">
+        <v>0.96</v>
+      </c>
+      <c r="K4" s="68">
+        <v>0.84662434789951269</v>
+      </c>
+      <c r="L4" s="68">
+        <v>0.96017316017316023</v>
+      </c>
+      <c r="M4" s="66">
+        <v>0.98501720570133977</v>
+      </c>
+      <c r="N4" s="68">
+        <v>0.65022408963585432</v>
+      </c>
+      <c r="O4" s="68">
+        <v>0.86161616161616161</v>
+      </c>
+      <c r="P4" s="66">
+        <v>0.96078431372549011</v>
+      </c>
+      <c r="Q4" s="65">
+        <v>0.52159894794122974</v>
+      </c>
+      <c r="R4" s="68">
+        <v>0.83971483968610605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="83"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="67">
+        <v>0.1955033102704439</v>
+      </c>
+      <c r="E5" s="69">
+        <v>0.67101806239737283</v>
+      </c>
+      <c r="F5" s="67">
+        <v>0.54172043010752691</v>
+      </c>
+      <c r="G5" s="67">
+        <v>0.98100600600600596</v>
+      </c>
+      <c r="H5" s="64">
+        <v>0.62254901960784326</v>
+      </c>
+      <c r="I5" s="67">
+        <v>0.73261329571504141</v>
+      </c>
+      <c r="J5" s="67">
+        <v>0.96</v>
+      </c>
+      <c r="K5" s="69">
+        <v>0.80450783838635898</v>
+      </c>
+      <c r="L5" s="69">
+        <v>0.91515151515151505</v>
+      </c>
+      <c r="M5" s="67">
+        <v>0.99736203031438231</v>
+      </c>
+      <c r="N5" s="69">
+        <v>0.52843137254901962</v>
+      </c>
+      <c r="O5" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="P5" s="67">
+        <v>0.97189542483660118</v>
+      </c>
+      <c r="Q5" s="65">
+        <v>0.3638264103029204</v>
+      </c>
+      <c r="R5" s="69">
+        <v>0.72958675093025149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="84" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="66">
+        <v>0.1523757070898305</v>
+      </c>
+      <c r="E6" s="68">
+        <v>0.68839080459770119</v>
+      </c>
+      <c r="F6" s="66">
+        <v>0.5450537634408601</v>
+      </c>
+      <c r="G6" s="66">
+        <v>0.97830330330330317</v>
+      </c>
+      <c r="H6" s="68">
+        <v>0.84260249554367195</v>
+      </c>
+      <c r="I6" s="66">
+        <v>0.73079703755951331</v>
+      </c>
+      <c r="J6" s="68">
+        <v>0.97333333333333338</v>
+      </c>
+      <c r="K6" s="68">
+        <v>0.83962662231996676</v>
+      </c>
+      <c r="L6" s="68">
+        <v>0.95930735930735944</v>
+      </c>
+      <c r="M6" s="68">
+        <v>0.99894825504991935</v>
+      </c>
+      <c r="N6" s="68">
+        <v>0.67270308123249301</v>
+      </c>
+      <c r="O6" s="68">
+        <v>0.8545454545454545</v>
+      </c>
+      <c r="P6" s="66">
+        <v>0.96078431372549011</v>
+      </c>
+      <c r="Q6" s="68">
+        <v>0.55593143479049523</v>
+      </c>
+      <c r="R6" s="68">
+        <v>0.83781458545645027</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="85"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="67">
+        <v>0.16412630661021421</v>
+      </c>
+      <c r="E7" s="69">
+        <v>0.6818555008210182</v>
+      </c>
+      <c r="F7" s="67">
+        <v>0.54516129032258065</v>
+      </c>
+      <c r="G7" s="67">
+        <v>0.97560060060060061</v>
+      </c>
+      <c r="H7" s="69">
+        <v>0.58368983957219256</v>
+      </c>
+      <c r="I7" s="67">
+        <v>0.7345177217421972</v>
+      </c>
+      <c r="J7" s="69">
+        <v>0.96</v>
+      </c>
+      <c r="K7" s="69">
+        <v>0.81678386788578572</v>
+      </c>
+      <c r="L7" s="69">
+        <v>0.93722943722943719</v>
+      </c>
+      <c r="M7" s="69">
+        <v>0.99839652496566011</v>
+      </c>
+      <c r="N7" s="69">
+        <v>0.48593837535014001</v>
+      </c>
+      <c r="O7" s="69">
+        <v>0.84040404040404049</v>
+      </c>
+      <c r="P7" s="67">
+        <v>0.96633986928104565</v>
+      </c>
+      <c r="Q7" s="69">
+        <v>0.3011427534917468</v>
+      </c>
+      <c r="R7" s="69">
+        <v>0.75883885715444976</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="85"/>
+      <c r="B8" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="66">
+        <v>0.17849758470735369</v>
+      </c>
+      <c r="E8" s="68">
+        <v>0.68493431855500819</v>
+      </c>
+      <c r="F8" s="66">
+        <v>0.52182795698924722</v>
+      </c>
+      <c r="G8" s="66">
+        <v>0.97552552552552552</v>
+      </c>
+      <c r="H8" s="68">
+        <v>0.83966131907308372</v>
+      </c>
+      <c r="I8" s="66">
+        <v>0.73731264327279133</v>
+      </c>
+      <c r="J8" s="66">
+        <v>0.96666666666666656</v>
+      </c>
+      <c r="K8" s="68">
+        <v>0.83993935626086136</v>
+      </c>
+      <c r="L8" s="68">
+        <v>0.95930735930735922</v>
+      </c>
+      <c r="M8" s="68">
+        <v>0.99891377229129863</v>
+      </c>
+      <c r="N8" s="68">
+        <v>0.66557422969187674</v>
+      </c>
+      <c r="O8" s="68">
+        <v>0.85353535353535348</v>
+      </c>
+      <c r="P8" s="66">
+        <v>0.96078431372549011</v>
+      </c>
+      <c r="Q8" s="68">
+        <v>0.54787774351532748</v>
+      </c>
+      <c r="R8" s="68">
+        <v>0.83761445944376667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="86"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="67">
+        <v>0.18448590409968679</v>
+      </c>
+      <c r="E9" s="69">
+        <v>0.66744663382594427</v>
+      </c>
+      <c r="F9" s="67">
+        <v>0.54827956989247306</v>
+      </c>
+      <c r="G9" s="67">
+        <v>0.98100600600600596</v>
+      </c>
+      <c r="H9" s="69">
+        <v>0.61942959001782538</v>
+      </c>
+      <c r="I9" s="67">
+        <v>0.74013401516487387</v>
+      </c>
+      <c r="J9" s="69">
+        <v>0.96</v>
+      </c>
+      <c r="K9" s="69">
+        <v>0.80357543689103894</v>
+      </c>
+      <c r="L9" s="69">
+        <v>0.91212121212121189</v>
+      </c>
+      <c r="M9" s="69">
+        <v>0.99741375445231328</v>
+      </c>
+      <c r="N9" s="69">
+        <v>0.5248459383753501</v>
+      </c>
+      <c r="O9" s="69">
+        <v>0.84646464646464636</v>
+      </c>
+      <c r="P9" s="67">
+        <v>0.97189542483660118</v>
+      </c>
+      <c r="Q9" s="69">
+        <v>0.35369580990386362</v>
+      </c>
+      <c r="R9" s="69">
+        <v>0.74273382140780786</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="87" t="s">
+        <v>290</v>
+      </c>
+      <c r="B10" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="66">
+        <v>0.1523757070898305</v>
+      </c>
+      <c r="E10" s="68">
+        <v>0.68839080459770119</v>
+      </c>
+      <c r="F10" s="66">
+        <v>0.5450537634408601</v>
+      </c>
+      <c r="G10" s="68">
+        <v>0.97830330330330317</v>
+      </c>
+      <c r="H10" s="68">
+        <v>0.84260249554367195</v>
+      </c>
+      <c r="I10" s="66">
+        <v>0.73079703755951331</v>
+      </c>
+      <c r="J10" s="68">
+        <v>0.97333333333333338</v>
+      </c>
+      <c r="K10" s="68">
+        <v>0.83962662231996676</v>
+      </c>
+      <c r="L10" s="68">
+        <v>0.95930735930735944</v>
+      </c>
+      <c r="M10" s="68">
+        <v>0.99894825504991935</v>
+      </c>
+      <c r="N10" s="68">
+        <v>0.67270308123249301</v>
+      </c>
+      <c r="O10" s="68">
+        <v>0.8545454545454545</v>
+      </c>
+      <c r="P10" s="66">
+        <v>0.96078431372549011</v>
+      </c>
+      <c r="Q10" s="68">
+        <v>0.55593143479049523</v>
+      </c>
+      <c r="R10" s="68">
+        <v>0.83781458545645027</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="88"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="67">
+        <v>0.15382144045529131</v>
+      </c>
+      <c r="E11" s="69">
+        <v>0.6817323481116585</v>
+      </c>
+      <c r="F11" s="67">
+        <v>0.55505376344086022</v>
+      </c>
+      <c r="G11" s="67">
+        <v>0.97830330330330317</v>
+      </c>
+      <c r="H11" s="69">
+        <v>0.57477718360071306</v>
+      </c>
+      <c r="I11" s="67">
+        <v>0.73643096455651558</v>
+      </c>
+      <c r="J11" s="69">
+        <v>0.96</v>
+      </c>
+      <c r="K11" s="69">
+        <v>0.82284749776284904</v>
+      </c>
+      <c r="L11" s="69">
+        <v>0.92251082251082261</v>
+      </c>
+      <c r="M11" s="69">
+        <v>0.99827583233732331</v>
+      </c>
+      <c r="N11" s="69">
+        <v>0.44579831932773112</v>
+      </c>
+      <c r="O11" s="69">
+        <v>0.78989898989898999</v>
+      </c>
+      <c r="P11" s="67">
+        <v>0.97189542483660118</v>
+      </c>
+      <c r="Q11" s="69">
+        <v>0.28696263377471432</v>
+      </c>
+      <c r="R11" s="69">
+        <v>0.71507382743071279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="88"/>
+      <c r="B12" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="68">
+        <v>0.18184973552258671</v>
+      </c>
+      <c r="E12" s="68">
+        <v>0.68493431855500819</v>
+      </c>
+      <c r="F12" s="66">
+        <v>0.52172043010752689</v>
+      </c>
+      <c r="G12" s="66">
+        <v>0.97552552552552552</v>
+      </c>
+      <c r="H12" s="65">
+        <v>0.83966131907308372</v>
+      </c>
+      <c r="I12" s="66">
+        <v>0.7326485628636924</v>
+      </c>
+      <c r="J12" s="68">
+        <v>0.96666666666666656</v>
+      </c>
+      <c r="K12" s="68">
+        <v>0.84025064124838322</v>
+      </c>
+      <c r="L12" s="68">
+        <v>0.96017316017316023</v>
+      </c>
+      <c r="M12" s="68">
+        <v>0.99887928953267802</v>
+      </c>
+      <c r="N12" s="68">
+        <v>0.66677871148459378</v>
+      </c>
+      <c r="O12" s="68">
+        <v>0.85151515151515134</v>
+      </c>
+      <c r="P12" s="66">
+        <v>0.96078431372549011</v>
+      </c>
+      <c r="Q12" s="68">
+        <v>0.5451750408126248</v>
+      </c>
+      <c r="R12" s="68">
+        <v>0.83711453623459564</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="89"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="69">
+        <v>0.16508267070554089</v>
+      </c>
+      <c r="E13" s="69">
+        <v>0.67803776683087036</v>
+      </c>
+      <c r="F13" s="67">
+        <v>0.55827956989247307</v>
+      </c>
+      <c r="G13" s="67">
+        <v>0.98370870870870863</v>
+      </c>
+      <c r="H13" s="64">
+        <v>0.61354723707664893</v>
+      </c>
+      <c r="I13" s="67">
+        <v>0.73827367307353198</v>
+      </c>
+      <c r="J13" s="69">
+        <v>0.96</v>
+      </c>
+      <c r="K13" s="69">
+        <v>0.80295480186307411</v>
+      </c>
+      <c r="L13" s="69">
+        <v>0.90735930735930737</v>
+      </c>
+      <c r="M13" s="69">
+        <v>0.99724134065921</v>
+      </c>
+      <c r="N13" s="69">
+        <v>0.48829131652661062</v>
+      </c>
+      <c r="O13" s="69">
+        <v>0.78080808080808084</v>
+      </c>
+      <c r="P13" s="67">
+        <v>0.97189542483660118</v>
+      </c>
+      <c r="Q13" s="67">
+        <v>0.30655269363323051</v>
+      </c>
+      <c r="R13" s="69">
+        <v>0.71022636540097561</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="90" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="68">
+        <v>0.14134912165961011</v>
+      </c>
+      <c r="E14" s="65">
+        <v>0.73434318555008216</v>
+      </c>
+      <c r="F14" s="68">
+        <v>0.57462365591397846</v>
+      </c>
+      <c r="G14" s="68">
+        <v>0.97830330330330317</v>
+      </c>
+      <c r="H14" s="68">
+        <v>0.84260249554367195</v>
+      </c>
+      <c r="I14" s="68">
+        <v>0.74205607476635516</v>
+      </c>
+      <c r="J14" s="68">
+        <v>0.97333333333333338</v>
+      </c>
+      <c r="K14" s="68">
+        <v>0.8470875299943128</v>
+      </c>
+      <c r="L14" s="68">
+        <v>0.95714285714285707</v>
+      </c>
+      <c r="M14" s="68">
+        <v>0.99905170332578153</v>
+      </c>
+      <c r="N14" s="68">
+        <v>0.66796918767507019</v>
+      </c>
+      <c r="O14" s="68">
+        <v>0.86363636363636365</v>
+      </c>
+      <c r="P14" s="66">
+        <v>0.96078431372549011</v>
+      </c>
+      <c r="Q14" s="68">
+        <v>0.52425176854707056</v>
+      </c>
+      <c r="R14" s="68">
+        <v>0.84111506694957028</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="91"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="69">
+        <v>8.5763542276226873E-2</v>
+      </c>
+      <c r="E15" s="64">
+        <v>0.71291461412151069</v>
+      </c>
+      <c r="F15" s="69">
+        <v>0.55795698924731185</v>
+      </c>
+      <c r="G15" s="69">
+        <v>0.97282282282282284</v>
+      </c>
+      <c r="H15" s="69">
+        <v>0.56871657754010696</v>
+      </c>
+      <c r="I15" s="69">
+        <v>0.71673426203491442</v>
+      </c>
+      <c r="J15" s="69">
+        <v>0.96666666666666679</v>
+      </c>
+      <c r="K15" s="69">
+        <v>0.83776809812727515</v>
+      </c>
+      <c r="L15" s="69">
+        <v>0.93116883116883109</v>
+      </c>
+      <c r="M15" s="69">
+        <v>0.99862066884302292</v>
+      </c>
+      <c r="N15" s="69">
+        <v>0.4599579831932773</v>
+      </c>
+      <c r="O15" s="69">
+        <v>0.72424242424242424</v>
+      </c>
+      <c r="P15" s="67">
+        <v>0.96633986928104565</v>
+      </c>
+      <c r="Q15" s="69">
+        <v>0.23913023762017049</v>
+      </c>
+      <c r="R15" s="69">
+        <v>0.78369284391313621</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="91"/>
+      <c r="B16" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="68">
+        <v>0.18352667148577789</v>
+      </c>
+      <c r="E16" s="68">
+        <v>0.72018062397372751</v>
+      </c>
+      <c r="F16" s="66">
+        <v>0.54806451612903229</v>
+      </c>
+      <c r="G16" s="66">
+        <v>0.97552552552552552</v>
+      </c>
+      <c r="H16" s="68">
+        <v>0.83368983957219245</v>
+      </c>
+      <c r="I16" s="68">
+        <v>0.74016046552636217</v>
+      </c>
+      <c r="J16" s="68">
+        <v>0.96666666666666656</v>
+      </c>
+      <c r="K16" s="68">
+        <v>0.84848625072647044</v>
+      </c>
+      <c r="L16" s="68">
+        <v>0.95974025974025978</v>
+      </c>
+      <c r="M16" s="68">
+        <v>0.99905170332578153</v>
+      </c>
+      <c r="N16" s="68">
+        <v>0.66438375350140055</v>
+      </c>
+      <c r="O16" s="68">
+        <v>0.85656565656565653</v>
+      </c>
+      <c r="P16" s="66">
+        <v>0.96078431372549011</v>
+      </c>
+      <c r="Q16" s="68">
+        <v>0.44672592055142391</v>
+      </c>
+      <c r="R16" s="68">
+        <v>0.84036549116465231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="92"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="69">
+        <v>0.1123656099044209</v>
+      </c>
+      <c r="E17" s="69">
+        <v>0.71648604269293936</v>
+      </c>
+      <c r="F17" s="67">
+        <v>0.56150537634408604</v>
+      </c>
+      <c r="G17" s="67">
+        <v>0.97822822822822819</v>
+      </c>
+      <c r="H17" s="69">
+        <v>0.67611408199643508</v>
+      </c>
+      <c r="I17" s="69">
+        <v>0.68675718568153776</v>
+      </c>
+      <c r="J17" s="67">
+        <v>0.96666666666666679</v>
+      </c>
+      <c r="K17" s="69">
+        <v>0.8396333878639336</v>
+      </c>
+      <c r="L17" s="69">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="M17" s="69">
+        <v>0.99848273483537597</v>
+      </c>
+      <c r="N17" s="69">
+        <v>0.45997198879551832</v>
+      </c>
+      <c r="O17" s="69">
+        <v>0.72626262626262628</v>
+      </c>
+      <c r="P17" s="67">
+        <v>0.96633986928104565</v>
+      </c>
+      <c r="Q17" s="69">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="R17" s="69">
+        <v>0.77709097856960374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="59"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="59"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="59"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="59"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="59"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="59"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="59"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="59"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="59"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="59"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="59"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="59"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16047,38 +17364,38 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="71" t="s">
+      <c r="E1" s="75"/>
+      <c r="F1" s="76" t="s">
         <v>197</v>
       </c>
-      <c r="G1" s="71"/>
-      <c r="H1" s="72" t="s">
+      <c r="G1" s="76"/>
+      <c r="H1" s="77" t="s">
         <v>208</v>
       </c>
-      <c r="I1" s="72"/>
-      <c r="J1" s="70" t="s">
+      <c r="I1" s="77"/>
+      <c r="J1" s="75" t="s">
         <v>210</v>
       </c>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70" t="s">
+      <c r="K1" s="75"/>
+      <c r="L1" s="75" t="s">
         <v>199</v>
       </c>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70" t="s">
+      <c r="M1" s="75"/>
+      <c r="N1" s="75" t="s">
         <v>200</v>
       </c>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70" t="s">
+      <c r="O1" s="75"/>
+      <c r="P1" s="75" t="s">
         <v>209</v>
       </c>
-      <c r="Q1" s="70"/>
+      <c r="Q1" s="75"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -17142,34 +18459,34 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="75" t="s">
         <v>201</v>
       </c>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70" t="s">
+      <c r="C24" s="75"/>
+      <c r="D24" s="75" t="s">
         <v>202</v>
       </c>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70" t="s">
+      <c r="E24" s="75"/>
+      <c r="F24" s="75" t="s">
         <v>203</v>
       </c>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70" t="s">
+      <c r="G24" s="75"/>
+      <c r="H24" s="75" t="s">
         <v>204</v>
       </c>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70" t="s">
+      <c r="I24" s="75"/>
+      <c r="J24" s="75" t="s">
         <v>205</v>
       </c>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70" t="s">
+      <c r="K24" s="75"/>
+      <c r="L24" s="75" t="s">
         <v>213</v>
       </c>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70" t="s">
+      <c r="M24" s="75"/>
+      <c r="N24" s="75" t="s">
         <v>207</v>
       </c>
-      <c r="O24" s="70"/>
+      <c r="O24" s="75"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -18287,8 +19604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26:T44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18321,46 +19638,46 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="78" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78" t="s">
         <v>196</v>
       </c>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73" t="s">
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78" t="s">
         <v>197</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73" t="s">
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78" t="s">
         <v>208</v>
       </c>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73" t="s">
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78" t="s">
         <v>210</v>
       </c>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73" t="s">
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78" t="s">
         <v>199</v>
       </c>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73" t="s">
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78" t="s">
         <v>200</v>
       </c>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73" t="s">
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78" t="s">
         <v>209</v>
       </c>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
     </row>
     <row r="2" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -20301,41 +21618,41 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="78" t="s">
         <v>201</v>
       </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73" t="s">
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78" t="s">
         <v>202</v>
       </c>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73" t="s">
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78" t="s">
         <v>203</v>
       </c>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73" t="s">
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78" t="s">
         <v>204</v>
       </c>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73" t="s">
+      <c r="L24" s="78"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78" t="s">
         <v>205</v>
       </c>
-      <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="73" t="s">
+      <c r="O24" s="78"/>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="78" t="s">
         <v>213</v>
       </c>
-      <c r="R24" s="73"/>
-      <c r="S24" s="73"/>
-      <c r="T24" s="73" t="s">
+      <c r="R24" s="78"/>
+      <c r="S24" s="78"/>
+      <c r="T24" s="78" t="s">
         <v>207</v>
       </c>
-      <c r="U24" s="73"/>
-      <c r="V24" s="73"/>
+      <c r="U24" s="78"/>
+      <c r="V24" s="78"/>
     </row>
     <row r="25" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
@@ -21974,7 +23291,7 @@
         <f>(1-96.1038961038961%)</f>
         <v>3.8961038961038974E-2</v>
       </c>
-      <c r="D45" s="90">
+      <c r="D45" s="74">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -22093,6 +23410,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="Q24:S24"/>
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="B1:D1"/>
@@ -22101,13 +23425,6 @@
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="Q24:S24"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D22">
     <cfRule type="colorScale" priority="20">
@@ -22313,6 +23630,6037 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
+      <selection activeCell="W50" sqref="W50:W68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" customWidth="1"/>
+    <col min="15" max="15" width="6.28515625" customWidth="1"/>
+    <col min="16" max="16" width="7" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" customWidth="1"/>
+    <col min="19" max="19" width="7" customWidth="1"/>
+    <col min="20" max="20" width="6.85546875" customWidth="1"/>
+    <col min="21" max="21" width="7.28515625" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" customWidth="1"/>
+    <col min="23" max="23" width="10.140625" customWidth="1"/>
+    <col min="24" max="24" width="7" customWidth="1"/>
+    <col min="25" max="25" width="5.7109375" customWidth="1"/>
+    <col min="26" max="26" width="6.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="94" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="94" t="s">
+        <v>196</v>
+      </c>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="94" t="s">
+        <v>197</v>
+      </c>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="94" t="s">
+        <v>208</v>
+      </c>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="94" t="s">
+        <v>210</v>
+      </c>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="96"/>
+    </row>
+    <row r="2" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="99" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="97" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2" s="103" t="s">
+        <v>301</v>
+      </c>
+      <c r="E2" s="104"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="99" t="s">
+        <v>296</v>
+      </c>
+      <c r="H2" s="97" t="s">
+        <v>297</v>
+      </c>
+      <c r="I2" s="103" t="s">
+        <v>301</v>
+      </c>
+      <c r="J2" s="104"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="99" t="s">
+        <v>296</v>
+      </c>
+      <c r="M2" s="97" t="s">
+        <v>297</v>
+      </c>
+      <c r="N2" s="103" t="s">
+        <v>301</v>
+      </c>
+      <c r="O2" s="104"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="99" t="s">
+        <v>296</v>
+      </c>
+      <c r="R2" s="97" t="s">
+        <v>297</v>
+      </c>
+      <c r="S2" s="103" t="s">
+        <v>301</v>
+      </c>
+      <c r="T2" s="104"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="99" t="s">
+        <v>296</v>
+      </c>
+      <c r="W2" s="97" t="s">
+        <v>297</v>
+      </c>
+      <c r="X2" s="103" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y2" s="104"/>
+      <c r="Z2" s="105"/>
+    </row>
+    <row r="3" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="70" t="s">
+        <v>298</v>
+      </c>
+      <c r="E3" s="70" t="s">
+        <v>299</v>
+      </c>
+      <c r="F3" s="70" t="s">
+        <v>300</v>
+      </c>
+      <c r="G3" s="100"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="70" t="s">
+        <v>298</v>
+      </c>
+      <c r="J3" s="70" t="s">
+        <v>299</v>
+      </c>
+      <c r="K3" s="70" t="s">
+        <v>300</v>
+      </c>
+      <c r="L3" s="100"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="70" t="s">
+        <v>298</v>
+      </c>
+      <c r="O3" s="70" t="s">
+        <v>299</v>
+      </c>
+      <c r="P3" s="70" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="70" t="s">
+        <v>298</v>
+      </c>
+      <c r="T3" s="70" t="s">
+        <v>299</v>
+      </c>
+      <c r="U3" s="70" t="s">
+        <v>300</v>
+      </c>
+      <c r="V3" s="100"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="70" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y3" s="70" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z3" s="70" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="108">
+        <v>6.45397290724339</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f>IF(OR(C4 &gt;=$B$72, C4 &lt;=$B$73), "TAK", "NIE")</f>
+        <v>TAK</v>
+      </c>
+      <c r="E4" s="3" t="str">
+        <f>IF(OR(C4 &gt;=$C$72, C4 &lt;=$C$73), "TAK", "NIE")</f>
+        <v>TAK</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f>IF(OR(C4 &gt;=$D$72, C4 &lt;=$D$73), "TAK", "NIE")</f>
+        <v>TAK</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H4" s="108">
+        <v>1.9725859349371861</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <f>IF(OR(H4 &gt;=$B$72, H4 &lt;=$B$73), "TAK", "NIE")</f>
+        <v>TAK</v>
+      </c>
+      <c r="J4" s="106" t="str">
+        <f>IF(OR(H4 &gt;=$C$72, H4 &lt;=$C$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="K4" s="106" t="str">
+        <f>IF(OR(H4 &gt;=$D$72, H4 &lt;=$D$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="M4" s="108">
+        <v>2.7272217885660295</v>
+      </c>
+      <c r="N4" s="3" t="str">
+        <f>IF(OR(M4 &gt;=$B$72, M4 &lt;=$B$73), "TAK", "NIE")</f>
+        <v>TAK</v>
+      </c>
+      <c r="O4" s="3" t="str">
+        <f>IF(OR(M4 &gt;=$C$72, M4 &lt;=$C$73), "TAK", "NIE")</f>
+        <v>TAK</v>
+      </c>
+      <c r="P4" s="106" t="str">
+        <f>IF(OR(M4 &gt;=$D$72, M4 &lt;=$D$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="R4" s="107">
+        <v>1</v>
+      </c>
+      <c r="S4" s="106" t="str">
+        <f>IF(OR(R4 &gt;=$B$72, R4 &lt;=$B$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="T4" s="106" t="str">
+        <f>IF(OR(R4 &gt;=$C$72, R4 &lt;=$C$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="U4" s="106" t="str">
+        <f>IF(OR(R4 &gt;=$D$72, R4 &lt;=$D$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="W4" s="107">
+        <v>0.2653365852799443</v>
+      </c>
+      <c r="X4" s="106" t="str">
+        <f>IF(OR(W4 &gt;=$B$72, W4 &lt;=$B$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="Y4" s="106" t="str">
+        <f>IF(OR(W4 &gt;=$C$72, W4 &lt;=$C$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="Z4" s="106" t="str">
+        <f>IF(OR(W4 &gt;=$D$72, W4 &lt;=$D$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="108">
+        <v>7.3001216412544068</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" ref="D5:D22" si="0">IF(OR(C5 &gt;=$B$72, C5 &lt;=$B$73), "TAK", "NIE")</f>
+        <v>TAK</v>
+      </c>
+      <c r="E5" s="3" t="str">
+        <f t="shared" ref="E5:E22" si="1">IF(OR(C5 &gt;=$C$72, C5 &lt;=$C$73), "TAK", "NIE")</f>
+        <v>TAK</v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <f t="shared" ref="F5:F22" si="2">IF(OR(C5 &gt;=$D$72, C5 &lt;=$D$73), "TAK", "NIE")</f>
+        <v>TAK</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H5" s="108">
+        <v>1.9725859349371861</v>
+      </c>
+      <c r="I5" s="3" t="str">
+        <f t="shared" ref="I5:I22" si="3">IF(OR(H5 &gt;=$B$72, H5 &lt;=$B$73), "TAK", "NIE")</f>
+        <v>TAK</v>
+      </c>
+      <c r="J5" s="106" t="str">
+        <f t="shared" ref="J5:J22" si="4">IF(OR(H5 &gt;=$C$72, H5 &lt;=$C$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="K5" s="106" t="str">
+        <f t="shared" ref="K5:K22" si="5">IF(OR(H5 &gt;=$D$72, H5 &lt;=$D$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M5" s="108">
+        <v>1.9114073070779845</v>
+      </c>
+      <c r="N5" s="3" t="str">
+        <f t="shared" ref="N5:N22" si="6">IF(OR(M5 &gt;=$B$72, M5 &lt;=$B$73), "TAK", "NIE")</f>
+        <v>TAK</v>
+      </c>
+      <c r="O5" s="106" t="str">
+        <f t="shared" ref="O5:O22" si="7">IF(OR(M5 &gt;=$C$72, M5 &lt;=$C$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="P5" s="106" t="str">
+        <f t="shared" ref="P5:P22" si="8">IF(OR(M5 &gt;=$D$72, M5 &lt;=$D$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R5" s="107">
+        <v>1</v>
+      </c>
+      <c r="S5" s="106" t="str">
+        <f t="shared" ref="S5:S22" si="9">IF(OR(R5 &gt;=$B$72, R5 &lt;=$B$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="T5" s="106" t="str">
+        <f t="shared" ref="T5:T22" si="10">IF(OR(R5 &gt;=$C$72, R5 &lt;=$C$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="U5" s="106" t="str">
+        <f t="shared" ref="U5:U22" si="11">IF(OR(R5 &gt;=$D$72, R5 &lt;=$D$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W5" s="71">
+        <v>0</v>
+      </c>
+      <c r="X5" s="106" t="str">
+        <f t="shared" ref="X5:X22" si="12">IF(OR(W5 &gt;=$B$72, W5 &lt;=$B$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="Y5" s="106" t="str">
+        <f t="shared" ref="Y5:Y22" si="13">IF(OR(W5 &gt;=$C$72, W5 &lt;=$C$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="Z5" s="106" t="str">
+        <f t="shared" ref="Z5:Z22" si="14">IF(OR(W5 &gt;=$D$72, W5 &lt;=$D$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="108">
+        <v>4.2759845158347041</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>TAK</v>
+      </c>
+      <c r="E6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>TAK</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TAK</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="108">
+        <v>2.2523576635085281</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TAK</v>
+      </c>
+      <c r="J6" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>NIE</v>
+      </c>
+      <c r="K6" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>NIE</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" s="108">
+        <v>1.4924745583945491</v>
+      </c>
+      <c r="N6" s="106" t="str">
+        <f t="shared" si="6"/>
+        <v>NIE</v>
+      </c>
+      <c r="O6" s="106" t="str">
+        <f t="shared" si="7"/>
+        <v>NIE</v>
+      </c>
+      <c r="P6" s="106" t="str">
+        <f t="shared" si="8"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R6" s="107">
+        <v>1</v>
+      </c>
+      <c r="S6" s="106" t="str">
+        <f t="shared" si="9"/>
+        <v>NIE</v>
+      </c>
+      <c r="T6" s="106" t="str">
+        <f t="shared" si="10"/>
+        <v>NIE</v>
+      </c>
+      <c r="U6" s="106" t="str">
+        <f t="shared" si="11"/>
+        <v>NIE</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="W6" s="71">
+        <v>0</v>
+      </c>
+      <c r="X6" s="106" t="str">
+        <f t="shared" si="12"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y6" s="106" t="str">
+        <f t="shared" si="13"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z6" s="106" t="str">
+        <f t="shared" si="14"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="108">
+        <v>4.6593303565017914</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>TAK</v>
+      </c>
+      <c r="E7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>TAK</v>
+      </c>
+      <c r="F7" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TAK</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H7" s="108">
+        <v>2.2523576635085281</v>
+      </c>
+      <c r="I7" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TAK</v>
+      </c>
+      <c r="J7" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>NIE</v>
+      </c>
+      <c r="K7" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>NIE</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M7" s="108">
+        <v>2.5240129072401047</v>
+      </c>
+      <c r="N7" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>TAK</v>
+      </c>
+      <c r="O7" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TAK</v>
+      </c>
+      <c r="P7" s="106" t="str">
+        <f t="shared" si="8"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R7" s="107">
+        <v>1</v>
+      </c>
+      <c r="S7" s="106" t="str">
+        <f t="shared" si="9"/>
+        <v>NIE</v>
+      </c>
+      <c r="T7" s="106" t="str">
+        <f t="shared" si="10"/>
+        <v>NIE</v>
+      </c>
+      <c r="U7" s="106" t="str">
+        <f t="shared" si="11"/>
+        <v>NIE</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="W7" s="71">
+        <v>0</v>
+      </c>
+      <c r="X7" s="106" t="str">
+        <f t="shared" si="12"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y7" s="106" t="str">
+        <f t="shared" si="13"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z7" s="106" t="str">
+        <f t="shared" si="14"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="108">
+        <v>4.6035913504624757</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>TAK</v>
+      </c>
+      <c r="E8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>TAK</v>
+      </c>
+      <c r="F8" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TAK</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H8" s="108">
+        <v>2.1351246606519458</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TAK</v>
+      </c>
+      <c r="J8" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>NIE</v>
+      </c>
+      <c r="K8" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>NIE</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M8" s="108">
+        <v>1.2367946414997382</v>
+      </c>
+      <c r="N8" s="106" t="str">
+        <f t="shared" si="6"/>
+        <v>NIE</v>
+      </c>
+      <c r="O8" s="106" t="str">
+        <f t="shared" si="7"/>
+        <v>NIE</v>
+      </c>
+      <c r="P8" s="106" t="str">
+        <f t="shared" si="8"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="R8" s="107">
+        <v>1</v>
+      </c>
+      <c r="S8" s="106" t="str">
+        <f t="shared" si="9"/>
+        <v>NIE</v>
+      </c>
+      <c r="T8" s="106" t="str">
+        <f t="shared" si="10"/>
+        <v>NIE</v>
+      </c>
+      <c r="U8" s="106" t="str">
+        <f t="shared" si="11"/>
+        <v>NIE</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="W8" s="71">
+        <v>0</v>
+      </c>
+      <c r="X8" s="106" t="str">
+        <f t="shared" si="12"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y8" s="106" t="str">
+        <f t="shared" si="13"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z8" s="106" t="str">
+        <f t="shared" si="14"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="108">
+        <v>5.8035954164303813</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>TAK</v>
+      </c>
+      <c r="E9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>TAK</v>
+      </c>
+      <c r="F9" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TAK</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H9" s="108">
+        <v>2.2534123657571299</v>
+      </c>
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TAK</v>
+      </c>
+      <c r="J9" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>NIE</v>
+      </c>
+      <c r="K9" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>NIE</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M9" s="108">
+        <v>1.724480946888953</v>
+      </c>
+      <c r="N9" s="106" t="str">
+        <f t="shared" si="6"/>
+        <v>NIE</v>
+      </c>
+      <c r="O9" s="106" t="str">
+        <f t="shared" si="7"/>
+        <v>NIE</v>
+      </c>
+      <c r="P9" s="106" t="str">
+        <f t="shared" si="8"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="R9" s="107">
+        <v>1</v>
+      </c>
+      <c r="S9" s="106" t="str">
+        <f t="shared" si="9"/>
+        <v>NIE</v>
+      </c>
+      <c r="T9" s="106" t="str">
+        <f t="shared" si="10"/>
+        <v>NIE</v>
+      </c>
+      <c r="U9" s="106" t="str">
+        <f t="shared" si="11"/>
+        <v>NIE</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="W9" s="71">
+        <v>0</v>
+      </c>
+      <c r="X9" s="106" t="str">
+        <f t="shared" si="12"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y9" s="106" t="str">
+        <f t="shared" si="13"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z9" s="106" t="str">
+        <f t="shared" si="14"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="108">
+        <v>4.8115804952865329</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>TAK</v>
+      </c>
+      <c r="E10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>TAK</v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TAK</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H10" s="108">
+        <v>1.9686507759591882</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TAK</v>
+      </c>
+      <c r="J10" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>NIE</v>
+      </c>
+      <c r="K10" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>NIE</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M10" s="108">
+        <v>1.6141979208588271</v>
+      </c>
+      <c r="N10" s="106" t="str">
+        <f t="shared" si="6"/>
+        <v>NIE</v>
+      </c>
+      <c r="O10" s="106" t="str">
+        <f t="shared" si="7"/>
+        <v>NIE</v>
+      </c>
+      <c r="P10" s="106" t="str">
+        <f t="shared" si="8"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R10" s="107">
+        <v>1</v>
+      </c>
+      <c r="S10" s="106" t="str">
+        <f t="shared" si="9"/>
+        <v>NIE</v>
+      </c>
+      <c r="T10" s="106" t="str">
+        <f t="shared" si="10"/>
+        <v>NIE</v>
+      </c>
+      <c r="U10" s="106" t="str">
+        <f t="shared" si="11"/>
+        <v>NIE</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="W10" s="107">
+        <v>-3.5272087778626293E-15</v>
+      </c>
+      <c r="X10" s="106" t="str">
+        <f t="shared" si="12"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y10" s="106" t="str">
+        <f t="shared" si="13"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z10" s="106" t="str">
+        <f t="shared" si="14"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="108">
+        <v>5.3400869364709997</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>TAK</v>
+      </c>
+      <c r="E11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>TAK</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TAK</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H11" s="108">
+        <v>1.7521046067391284</v>
+      </c>
+      <c r="I11" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>NIE</v>
+      </c>
+      <c r="J11" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>NIE</v>
+      </c>
+      <c r="K11" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>NIE</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="M11" s="108">
+        <v>1.6468246895724525</v>
+      </c>
+      <c r="N11" s="106" t="str">
+        <f t="shared" si="6"/>
+        <v>NIE</v>
+      </c>
+      <c r="O11" s="106" t="str">
+        <f t="shared" si="7"/>
+        <v>NIE</v>
+      </c>
+      <c r="P11" s="106" t="str">
+        <f t="shared" si="8"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="R11" s="107">
+        <v>1</v>
+      </c>
+      <c r="S11" s="106" t="str">
+        <f t="shared" si="9"/>
+        <v>NIE</v>
+      </c>
+      <c r="T11" s="106" t="str">
+        <f t="shared" si="10"/>
+        <v>NIE</v>
+      </c>
+      <c r="U11" s="106" t="str">
+        <f t="shared" si="11"/>
+        <v>NIE</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="W11" s="107">
+        <v>-2.5321848363122232E-15</v>
+      </c>
+      <c r="X11" s="106" t="str">
+        <f t="shared" si="12"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y11" s="106" t="str">
+        <f t="shared" si="13"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z11" s="106" t="str">
+        <f t="shared" si="14"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="108">
+        <v>2.6075665652756603</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>TAK</v>
+      </c>
+      <c r="E12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>TAK</v>
+      </c>
+      <c r="F12" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>NIE</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H12" s="108">
+        <v>1.5832218218240337</v>
+      </c>
+      <c r="I12" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>NIE</v>
+      </c>
+      <c r="J12" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>NIE</v>
+      </c>
+      <c r="K12" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>NIE</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="M12" s="108">
+        <v>1.1087809940117523</v>
+      </c>
+      <c r="N12" s="106" t="str">
+        <f t="shared" si="6"/>
+        <v>NIE</v>
+      </c>
+      <c r="O12" s="106" t="str">
+        <f t="shared" si="7"/>
+        <v>NIE</v>
+      </c>
+      <c r="P12" s="106" t="str">
+        <f t="shared" si="8"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R12" s="107">
+        <v>1</v>
+      </c>
+      <c r="S12" s="106" t="str">
+        <f t="shared" si="9"/>
+        <v>NIE</v>
+      </c>
+      <c r="T12" s="106" t="str">
+        <f t="shared" si="10"/>
+        <v>NIE</v>
+      </c>
+      <c r="U12" s="106" t="str">
+        <f t="shared" si="11"/>
+        <v>NIE</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="W12" s="107">
+        <v>-2.5321848363122232E-15</v>
+      </c>
+      <c r="X12" s="106" t="str">
+        <f t="shared" si="12"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y12" s="106" t="str">
+        <f t="shared" si="13"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z12" s="106" t="str">
+        <f t="shared" si="14"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="108">
+        <v>5.4905509319071726</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>TAK</v>
+      </c>
+      <c r="E13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>TAK</v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TAK</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H13" s="108">
+        <v>1.8292936314577222</v>
+      </c>
+      <c r="I13" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>NIE</v>
+      </c>
+      <c r="J13" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>NIE</v>
+      </c>
+      <c r="K13" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>NIE</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M13" s="108">
+        <v>0.99654780248952979</v>
+      </c>
+      <c r="N13" s="106" t="str">
+        <f t="shared" si="6"/>
+        <v>NIE</v>
+      </c>
+      <c r="O13" s="106" t="str">
+        <f t="shared" si="7"/>
+        <v>NIE</v>
+      </c>
+      <c r="P13" s="106" t="str">
+        <f t="shared" si="8"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R13" s="107">
+        <v>1</v>
+      </c>
+      <c r="S13" s="106" t="str">
+        <f t="shared" si="9"/>
+        <v>NIE</v>
+      </c>
+      <c r="T13" s="106" t="str">
+        <f t="shared" si="10"/>
+        <v>NIE</v>
+      </c>
+      <c r="U13" s="106" t="str">
+        <f t="shared" si="11"/>
+        <v>NIE</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="W13" s="107">
+        <v>-1.7905250689741192E-15</v>
+      </c>
+      <c r="X13" s="106" t="str">
+        <f t="shared" si="12"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y13" s="106" t="str">
+        <f t="shared" si="13"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z13" s="106" t="str">
+        <f t="shared" si="14"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="108">
+        <v>4.1520492285788873</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>TAK</v>
+      </c>
+      <c r="E14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>TAK</v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TAK</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H14" s="108">
+        <v>1.2831899832327371</v>
+      </c>
+      <c r="I14" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>NIE</v>
+      </c>
+      <c r="J14" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>NIE</v>
+      </c>
+      <c r="K14" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>NIE</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M14" s="108">
+        <v>1.147730193837774</v>
+      </c>
+      <c r="N14" s="106" t="str">
+        <f t="shared" si="6"/>
+        <v>NIE</v>
+      </c>
+      <c r="O14" s="106" t="str">
+        <f t="shared" si="7"/>
+        <v>NIE</v>
+      </c>
+      <c r="P14" s="106" t="str">
+        <f t="shared" si="8"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R14" s="107">
+        <v>1</v>
+      </c>
+      <c r="S14" s="106" t="str">
+        <f t="shared" si="9"/>
+        <v>NIE</v>
+      </c>
+      <c r="T14" s="106" t="str">
+        <f t="shared" si="10"/>
+        <v>NIE</v>
+      </c>
+      <c r="U14" s="106" t="str">
+        <f t="shared" si="11"/>
+        <v>NIE</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="W14" s="107">
+        <v>-2.002270527293408E-2</v>
+      </c>
+      <c r="X14" s="106" t="str">
+        <f t="shared" si="12"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y14" s="106" t="str">
+        <f t="shared" si="13"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z14" s="106" t="str">
+        <f t="shared" si="14"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="108">
+        <v>2.7064275299404197</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>TAK</v>
+      </c>
+      <c r="E15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>TAK</v>
+      </c>
+      <c r="F15" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>NIE</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" s="108">
+        <v>1.9090909090909094</v>
+      </c>
+      <c r="I15" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TAK</v>
+      </c>
+      <c r="J15" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>NIE</v>
+      </c>
+      <c r="K15" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>NIE</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="M15" s="108">
+        <v>1.3839345834690588</v>
+      </c>
+      <c r="N15" s="106" t="str">
+        <f t="shared" si="6"/>
+        <v>NIE</v>
+      </c>
+      <c r="O15" s="106" t="str">
+        <f t="shared" si="7"/>
+        <v>NIE</v>
+      </c>
+      <c r="P15" s="106" t="str">
+        <f t="shared" si="8"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R15" s="107">
+        <v>1</v>
+      </c>
+      <c r="S15" s="106" t="str">
+        <f t="shared" si="9"/>
+        <v>NIE</v>
+      </c>
+      <c r="T15" s="106" t="str">
+        <f t="shared" si="10"/>
+        <v>NIE</v>
+      </c>
+      <c r="U15" s="106" t="str">
+        <f t="shared" si="11"/>
+        <v>NIE</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="W15" s="107">
+        <v>-2.002270527293408E-2</v>
+      </c>
+      <c r="X15" s="106" t="str">
+        <f t="shared" si="12"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y15" s="106" t="str">
+        <f t="shared" si="13"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z15" s="106" t="str">
+        <f t="shared" si="14"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" s="108">
+        <v>3.0831803703260965</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>TAK</v>
+      </c>
+      <c r="E16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>TAK</v>
+      </c>
+      <c r="F16" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>NIE</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H16" s="108">
+        <v>1.9012285156951751</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TAK</v>
+      </c>
+      <c r="J16" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>NIE</v>
+      </c>
+      <c r="K16" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>NIE</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M16" s="108">
+        <v>1.0371643122600147</v>
+      </c>
+      <c r="N16" s="106" t="str">
+        <f t="shared" si="6"/>
+        <v>NIE</v>
+      </c>
+      <c r="O16" s="106" t="str">
+        <f t="shared" si="7"/>
+        <v>NIE</v>
+      </c>
+      <c r="P16" s="106" t="str">
+        <f t="shared" si="8"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="R16" s="107">
+        <v>1</v>
+      </c>
+      <c r="S16" s="106" t="str">
+        <f t="shared" si="9"/>
+        <v>NIE</v>
+      </c>
+      <c r="T16" s="106" t="str">
+        <f t="shared" si="10"/>
+        <v>NIE</v>
+      </c>
+      <c r="U16" s="106" t="str">
+        <f t="shared" si="11"/>
+        <v>NIE</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="W16" s="107">
+        <v>-1.1676688051742825E-2</v>
+      </c>
+      <c r="X16" s="106" t="str">
+        <f t="shared" si="12"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y16" s="106" t="str">
+        <f t="shared" si="13"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z16" s="106" t="str">
+        <f t="shared" si="14"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="108">
+        <v>2.6066964643407871</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>TAK</v>
+      </c>
+      <c r="E17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>TAK</v>
+      </c>
+      <c r="F17" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>NIE</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H17" s="108">
+        <v>2.3162640965743444</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TAK</v>
+      </c>
+      <c r="J17" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>TAK</v>
+      </c>
+      <c r="K17" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>NIE</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M17" s="108">
+        <v>1.104342972201545</v>
+      </c>
+      <c r="N17" s="106" t="str">
+        <f t="shared" si="6"/>
+        <v>NIE</v>
+      </c>
+      <c r="O17" s="106" t="str">
+        <f t="shared" si="7"/>
+        <v>NIE</v>
+      </c>
+      <c r="P17" s="106" t="str">
+        <f t="shared" si="8"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R17" s="107">
+        <v>0.42857142857142749</v>
+      </c>
+      <c r="S17" s="106" t="str">
+        <f t="shared" si="9"/>
+        <v>NIE</v>
+      </c>
+      <c r="T17" s="106" t="str">
+        <f t="shared" si="10"/>
+        <v>NIE</v>
+      </c>
+      <c r="U17" s="106" t="str">
+        <f t="shared" si="11"/>
+        <v>NIE</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="W17" s="107">
+        <v>-0.54563055832256291</v>
+      </c>
+      <c r="X17" s="106" t="str">
+        <f t="shared" si="12"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y17" s="106" t="str">
+        <f t="shared" si="13"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z17" s="106" t="str">
+        <f t="shared" si="14"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="108">
+        <v>2.9019002955862696</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>TAK</v>
+      </c>
+      <c r="E18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>TAK</v>
+      </c>
+      <c r="F18" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>NIE</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="108">
+        <v>1.2296503095175704</v>
+      </c>
+      <c r="I18" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>NIE</v>
+      </c>
+      <c r="J18" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>NIE</v>
+      </c>
+      <c r="K18" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>NIE</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="M18" s="108">
+        <v>0.90959217127743353</v>
+      </c>
+      <c r="N18" s="106" t="str">
+        <f t="shared" si="6"/>
+        <v>NIE</v>
+      </c>
+      <c r="O18" s="106" t="str">
+        <f t="shared" si="7"/>
+        <v>NIE</v>
+      </c>
+      <c r="P18" s="106" t="str">
+        <f t="shared" si="8"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R18" s="107">
+        <v>0.42857142857142749</v>
+      </c>
+      <c r="S18" s="106" t="str">
+        <f t="shared" si="9"/>
+        <v>NIE</v>
+      </c>
+      <c r="T18" s="106" t="str">
+        <f t="shared" si="10"/>
+        <v>NIE</v>
+      </c>
+      <c r="U18" s="106" t="str">
+        <f t="shared" si="11"/>
+        <v>NIE</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="W18" s="107">
+        <v>-0.56856505277705738</v>
+      </c>
+      <c r="X18" s="106" t="str">
+        <f t="shared" si="12"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y18" s="106" t="str">
+        <f t="shared" si="13"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z18" s="106" t="str">
+        <f t="shared" si="14"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" s="108">
+        <v>2.2332946323867495</v>
+      </c>
+      <c r="D19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>TAK</v>
+      </c>
+      <c r="E19" s="106" t="str">
+        <f t="shared" si="1"/>
+        <v>NIE</v>
+      </c>
+      <c r="F19" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>NIE</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H19" s="108">
+        <v>3.6742346141747673</v>
+      </c>
+      <c r="I19" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TAK</v>
+      </c>
+      <c r="J19" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>TAK</v>
+      </c>
+      <c r="K19" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>TAK</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="M19" s="108">
+        <v>0.80051373281639004</v>
+      </c>
+      <c r="N19" s="106" t="str">
+        <f t="shared" si="6"/>
+        <v>NIE</v>
+      </c>
+      <c r="O19" s="106" t="str">
+        <f t="shared" si="7"/>
+        <v>NIE</v>
+      </c>
+      <c r="P19" s="106" t="str">
+        <f t="shared" si="8"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R19" s="107">
+        <v>0.42857142857142749</v>
+      </c>
+      <c r="S19" s="106" t="str">
+        <f t="shared" si="9"/>
+        <v>NIE</v>
+      </c>
+      <c r="T19" s="106" t="str">
+        <f t="shared" si="10"/>
+        <v>NIE</v>
+      </c>
+      <c r="U19" s="106" t="str">
+        <f t="shared" si="11"/>
+        <v>NIE</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W19" s="107">
+        <v>-0.56856505277705738</v>
+      </c>
+      <c r="X19" s="106" t="str">
+        <f t="shared" si="12"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y19" s="106" t="str">
+        <f t="shared" si="13"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z19" s="106" t="str">
+        <f t="shared" si="14"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="108">
+        <v>2.5501261180118777</v>
+      </c>
+      <c r="D20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>TAK</v>
+      </c>
+      <c r="E20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>TAK</v>
+      </c>
+      <c r="F20" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>NIE</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H20" s="108">
+        <v>1.5136089132185806</v>
+      </c>
+      <c r="I20" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>NIE</v>
+      </c>
+      <c r="J20" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>NIE</v>
+      </c>
+      <c r="K20" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>NIE</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M20" s="108">
+        <v>0.92469310582129105</v>
+      </c>
+      <c r="N20" s="106" t="str">
+        <f t="shared" si="6"/>
+        <v>NIE</v>
+      </c>
+      <c r="O20" s="106" t="str">
+        <f t="shared" si="7"/>
+        <v>NIE</v>
+      </c>
+      <c r="P20" s="106" t="str">
+        <f t="shared" si="8"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R20" s="107">
+        <v>0.42857142857142749</v>
+      </c>
+      <c r="S20" s="106" t="str">
+        <f t="shared" si="9"/>
+        <v>NIE</v>
+      </c>
+      <c r="T20" s="106" t="str">
+        <f t="shared" si="10"/>
+        <v>NIE</v>
+      </c>
+      <c r="U20" s="106" t="str">
+        <f t="shared" si="11"/>
+        <v>NIE</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="W20" s="107">
+        <v>-1</v>
+      </c>
+      <c r="X20" s="106" t="str">
+        <f t="shared" si="12"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y20" s="106" t="str">
+        <f t="shared" si="13"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z20" s="106" t="str">
+        <f t="shared" si="14"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" s="108">
+        <v>2.7482956662807836</v>
+      </c>
+      <c r="D21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>TAK</v>
+      </c>
+      <c r="E21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>TAK</v>
+      </c>
+      <c r="F21" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>NIE</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H21" s="108">
+        <v>1.6164477182409747</v>
+      </c>
+      <c r="I21" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>NIE</v>
+      </c>
+      <c r="J21" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>NIE</v>
+      </c>
+      <c r="K21" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>NIE</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M21" s="108">
+        <v>1.10773147334098</v>
+      </c>
+      <c r="N21" s="106" t="str">
+        <f t="shared" si="6"/>
+        <v>NIE</v>
+      </c>
+      <c r="O21" s="106" t="str">
+        <f t="shared" si="7"/>
+        <v>NIE</v>
+      </c>
+      <c r="P21" s="106" t="str">
+        <f t="shared" si="8"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R21" s="107">
+        <v>0.42857142857142749</v>
+      </c>
+      <c r="S21" s="106" t="str">
+        <f t="shared" si="9"/>
+        <v>NIE</v>
+      </c>
+      <c r="T21" s="106" t="str">
+        <f t="shared" si="10"/>
+        <v>NIE</v>
+      </c>
+      <c r="U21" s="106" t="str">
+        <f t="shared" si="11"/>
+        <v>NIE</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="W21" s="107">
+        <v>-1</v>
+      </c>
+      <c r="X21" s="106" t="str">
+        <f t="shared" si="12"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y21" s="106" t="str">
+        <f t="shared" si="13"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z21" s="106" t="str">
+        <f t="shared" si="14"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C22" s="108">
+        <v>3.1970311839053713</v>
+      </c>
+      <c r="D22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>TAK</v>
+      </c>
+      <c r="E22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>TAK</v>
+      </c>
+      <c r="F22" s="106" t="str">
+        <f t="shared" si="2"/>
+        <v>NIE</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H22" s="108">
+        <v>1.1888483103670422</v>
+      </c>
+      <c r="I22" s="106" t="str">
+        <f t="shared" si="3"/>
+        <v>NIE</v>
+      </c>
+      <c r="J22" s="106" t="str">
+        <f t="shared" si="4"/>
+        <v>NIE</v>
+      </c>
+      <c r="K22" s="106" t="str">
+        <f t="shared" si="5"/>
+        <v>NIE</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M22" s="108">
+        <v>1.1527405839782519</v>
+      </c>
+      <c r="N22" s="106" t="str">
+        <f t="shared" si="6"/>
+        <v>NIE</v>
+      </c>
+      <c r="O22" s="106" t="str">
+        <f t="shared" si="7"/>
+        <v>NIE</v>
+      </c>
+      <c r="P22" s="106" t="str">
+        <f t="shared" si="8"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R22" s="107">
+        <v>0.42857142857142749</v>
+      </c>
+      <c r="S22" s="106" t="str">
+        <f t="shared" si="9"/>
+        <v>NIE</v>
+      </c>
+      <c r="T22" s="106" t="str">
+        <f t="shared" si="10"/>
+        <v>NIE</v>
+      </c>
+      <c r="U22" s="106" t="str">
+        <f t="shared" si="11"/>
+        <v>NIE</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="W22" s="107">
+        <v>-1</v>
+      </c>
+      <c r="X22" s="106" t="str">
+        <f t="shared" si="12"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y22" s="106" t="str">
+        <f t="shared" si="13"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z22" s="106" t="str">
+        <f t="shared" si="14"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L23" s="102" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="78" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78" t="s">
+        <v>200</v>
+      </c>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78" t="s">
+        <v>209</v>
+      </c>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="78" t="s">
+        <v>201</v>
+      </c>
+      <c r="R24" s="78"/>
+      <c r="S24" s="78"/>
+      <c r="T24" s="78"/>
+      <c r="U24" s="78"/>
+      <c r="V24" s="78" t="s">
+        <v>202</v>
+      </c>
+      <c r="W24" s="78"/>
+      <c r="X24" s="78"/>
+      <c r="Y24" s="78"/>
+      <c r="Z24" s="78"/>
+    </row>
+    <row r="25" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="93" t="s">
+        <v>211</v>
+      </c>
+      <c r="B25" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="C25" s="93" t="s">
+        <v>297</v>
+      </c>
+      <c r="D25" s="93" t="s">
+        <v>301</v>
+      </c>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93" t="s">
+        <v>296</v>
+      </c>
+      <c r="H25" s="93" t="s">
+        <v>297</v>
+      </c>
+      <c r="I25" s="93" t="s">
+        <v>301</v>
+      </c>
+      <c r="J25" s="93"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="93" t="s">
+        <v>296</v>
+      </c>
+      <c r="M25" s="93" t="s">
+        <v>297</v>
+      </c>
+      <c r="N25" s="93" t="s">
+        <v>301</v>
+      </c>
+      <c r="O25" s="93"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="R25" s="93" t="s">
+        <v>297</v>
+      </c>
+      <c r="S25" s="93" t="s">
+        <v>301</v>
+      </c>
+      <c r="T25" s="93"/>
+      <c r="U25" s="93"/>
+      <c r="V25" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="W25" s="93" t="s">
+        <v>297</v>
+      </c>
+      <c r="X25" s="93" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y25" s="93"/>
+      <c r="Z25" s="93"/>
+    </row>
+    <row r="26" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="93"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="70" t="s">
+        <v>298</v>
+      </c>
+      <c r="E26" s="70" t="s">
+        <v>299</v>
+      </c>
+      <c r="F26" s="70" t="s">
+        <v>300</v>
+      </c>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="70" t="s">
+        <v>298</v>
+      </c>
+      <c r="J26" s="70" t="s">
+        <v>299</v>
+      </c>
+      <c r="K26" s="70" t="s">
+        <v>300</v>
+      </c>
+      <c r="L26" s="93"/>
+      <c r="M26" s="93"/>
+      <c r="N26" s="70" t="s">
+        <v>298</v>
+      </c>
+      <c r="O26" s="70" t="s">
+        <v>299</v>
+      </c>
+      <c r="P26" s="70" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q26" s="77"/>
+      <c r="R26" s="93"/>
+      <c r="S26" s="70" t="s">
+        <v>298</v>
+      </c>
+      <c r="T26" s="70" t="s">
+        <v>299</v>
+      </c>
+      <c r="U26" s="70" t="s">
+        <v>300</v>
+      </c>
+      <c r="V26" s="77"/>
+      <c r="W26" s="93"/>
+      <c r="X26" s="70" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y26" s="70" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z26" s="70" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27" s="107">
+        <v>1.6744831834748848</v>
+      </c>
+      <c r="D27" s="106" t="str">
+        <f>IF(OR(C27 &gt;=$B$72, C27 &lt;=$B$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="E27" s="106" t="str">
+        <f>IF(OR(C27 &gt;=$C$72, C27 &lt;=$C$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="F27" s="106" t="str">
+        <f>IF(OR(C27 &gt;=$D$72, C27 &lt;=$D$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="107">
+        <v>1.5</v>
+      </c>
+      <c r="I27" s="106" t="str">
+        <f>IF(OR(H27 &gt;=$B$72, H27 &lt;=$B$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="J27" s="106" t="str">
+        <f>IF(OR(H27 &gt;=$C$72, H27 &lt;=$C$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="K27" s="106" t="str">
+        <f>IF(OR(H27 &gt;=$D$72, H27 &lt;=$D$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="107">
+        <v>0.72584145829726288</v>
+      </c>
+      <c r="N27" s="106" t="str">
+        <f>IF(OR(M27 &gt;=$B$72, M27 &lt;=$B$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="O27" s="106" t="str">
+        <f>IF(OR(M27 &gt;=$C$72, M27 &lt;=$C$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="P27" s="106" t="str">
+        <f>IF(OR(M27 &gt;=$D$72, M27 &lt;=$D$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="R27" s="107">
+        <v>1</v>
+      </c>
+      <c r="S27" s="106" t="str">
+        <f>IF(OR(R27 &gt;=$B$72, R27 &lt;=$B$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="T27" s="106" t="str">
+        <f>IF(OR(R27 &gt;=$C$72, R27 &lt;=$C$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="U27" s="106" t="str">
+        <f>IF(OR(R27 &gt;=$D$72, R27 &lt;=$D$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W27" s="107">
+        <v>1.577738108708038</v>
+      </c>
+      <c r="X27" s="106" t="str">
+        <f>IF(OR(W27 &gt;=$B$72, W27 &lt;=$B$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="Y27" s="106" t="str">
+        <f>IF(OR(W27 &gt;=$C$72, W27 &lt;=$C$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="Z27" s="106" t="str">
+        <f>IF(OR(W27 &gt;=$D$72, W27 &lt;=$D$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="107">
+        <v>1.0033371868491323</v>
+      </c>
+      <c r="D28" s="106" t="str">
+        <f t="shared" ref="D28:D45" si="15">IF(OR(C28 &gt;=$B$72, C28 &lt;=$B$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="E28" s="106" t="str">
+        <f t="shared" ref="E28:E45" si="16">IF(OR(C28 &gt;=$C$72, C28 &lt;=$C$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="F28" s="106" t="str">
+        <f t="shared" ref="F28:F45" si="17">IF(OR(C28 &gt;=$D$72, C28 &lt;=$D$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="107">
+        <v>1.5</v>
+      </c>
+      <c r="I28" s="106" t="str">
+        <f t="shared" ref="I28:I45" si="18">IF(OR(H28 &gt;=$B$72, H28 &lt;=$B$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="J28" s="106" t="str">
+        <f t="shared" ref="J28:J45" si="19">IF(OR(H28 &gt;=$C$72, H28 &lt;=$C$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="K28" s="106" t="str">
+        <f t="shared" ref="K28:K45" si="20">IF(OR(H28 &gt;=$D$72, H28 &lt;=$D$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M28" s="107">
+        <v>0.54663280472717546</v>
+      </c>
+      <c r="N28" s="106" t="str">
+        <f t="shared" ref="N28:N45" si="21">IF(OR(M28 &gt;=$B$72, M28 &lt;=$B$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="O28" s="106" t="str">
+        <f t="shared" ref="O28:O45" si="22">IF(OR(M28 &gt;=$C$72, M28 &lt;=$C$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="P28" s="106" t="str">
+        <f t="shared" ref="P28:P45" si="23">IF(OR(M28 &gt;=$D$72, M28 &lt;=$D$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="R28" s="107">
+        <v>0.23076923076923639</v>
+      </c>
+      <c r="S28" s="106" t="str">
+        <f t="shared" ref="S28:S45" si="24">IF(OR(R28 &gt;=$B$72, R28 &lt;=$B$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="T28" s="106" t="str">
+        <f t="shared" ref="T28:T45" si="25">IF(OR(R28 &gt;=$C$72, R28 &lt;=$C$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="U28" s="106" t="str">
+        <f t="shared" ref="U28:U45" si="26">IF(OR(R28 &gt;=$D$72, R28 &lt;=$D$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="W28" s="107">
+        <v>1.5777381087080284</v>
+      </c>
+      <c r="X28" s="106" t="str">
+        <f t="shared" ref="X28:X45" si="27">IF(OR(W28 &gt;=$B$72, W28 &lt;=$B$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="Y28" s="106" t="str">
+        <f t="shared" ref="Y28:Y45" si="28">IF(OR(W28 &gt;=$C$72, W28 &lt;=$C$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="Z28" s="106" t="str">
+        <f t="shared" ref="Z28:Z45" si="29">IF(OR(W28 &gt;=$D$72, W28 &lt;=$D$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C29" s="107">
+        <v>0.51905319328486399</v>
+      </c>
+      <c r="D29" s="106" t="str">
+        <f t="shared" si="15"/>
+        <v>NIE</v>
+      </c>
+      <c r="E29" s="106" t="str">
+        <f t="shared" si="16"/>
+        <v>NIE</v>
+      </c>
+      <c r="F29" s="106" t="str">
+        <f t="shared" si="17"/>
+        <v>NIE</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H29" s="107">
+        <v>1.5</v>
+      </c>
+      <c r="I29" s="106" t="str">
+        <f t="shared" si="18"/>
+        <v>NIE</v>
+      </c>
+      <c r="J29" s="106" t="str">
+        <f t="shared" si="19"/>
+        <v>NIE</v>
+      </c>
+      <c r="K29" s="106" t="str">
+        <f t="shared" si="20"/>
+        <v>NIE</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="M29" s="107">
+        <v>0.4850053495610489</v>
+      </c>
+      <c r="N29" s="106" t="str">
+        <f t="shared" si="21"/>
+        <v>NIE</v>
+      </c>
+      <c r="O29" s="106" t="str">
+        <f t="shared" si="22"/>
+        <v>NIE</v>
+      </c>
+      <c r="P29" s="106" t="str">
+        <f t="shared" si="23"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R29" s="71">
+        <v>0</v>
+      </c>
+      <c r="S29" s="106" t="str">
+        <f t="shared" si="24"/>
+        <v>NIE</v>
+      </c>
+      <c r="T29" s="106" t="str">
+        <f t="shared" si="25"/>
+        <v>NIE</v>
+      </c>
+      <c r="U29" s="106" t="str">
+        <f t="shared" si="26"/>
+        <v>NIE</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="W29" s="107">
+        <v>1.5777381087080284</v>
+      </c>
+      <c r="X29" s="106" t="str">
+        <f t="shared" si="27"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y29" s="106" t="str">
+        <f t="shared" si="28"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z29" s="106" t="str">
+        <f t="shared" si="29"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="107">
+        <v>0.55547454530376583</v>
+      </c>
+      <c r="D30" s="106" t="str">
+        <f t="shared" si="15"/>
+        <v>NIE</v>
+      </c>
+      <c r="E30" s="106" t="str">
+        <f t="shared" si="16"/>
+        <v>NIE</v>
+      </c>
+      <c r="F30" s="106" t="str">
+        <f t="shared" si="17"/>
+        <v>NIE</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H30" s="107">
+        <v>1.5</v>
+      </c>
+      <c r="I30" s="106" t="str">
+        <f t="shared" si="18"/>
+        <v>NIE</v>
+      </c>
+      <c r="J30" s="106" t="str">
+        <f t="shared" si="19"/>
+        <v>NIE</v>
+      </c>
+      <c r="K30" s="106" t="str">
+        <f t="shared" si="20"/>
+        <v>NIE</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="M30" s="107">
+        <v>0.3945899043944015</v>
+      </c>
+      <c r="N30" s="106" t="str">
+        <f t="shared" si="21"/>
+        <v>NIE</v>
+      </c>
+      <c r="O30" s="106" t="str">
+        <f t="shared" si="22"/>
+        <v>NIE</v>
+      </c>
+      <c r="P30" s="106" t="str">
+        <f t="shared" si="23"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="R30" s="107">
+        <v>1.7203961682003525E-14</v>
+      </c>
+      <c r="S30" s="106" t="str">
+        <f t="shared" si="24"/>
+        <v>NIE</v>
+      </c>
+      <c r="T30" s="106" t="str">
+        <f t="shared" si="25"/>
+        <v>NIE</v>
+      </c>
+      <c r="U30" s="106" t="str">
+        <f t="shared" si="26"/>
+        <v>NIE</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="W30" s="107">
+        <v>1.5777381087080284</v>
+      </c>
+      <c r="X30" s="106" t="str">
+        <f t="shared" si="27"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y30" s="106" t="str">
+        <f t="shared" si="28"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z30" s="106" t="str">
+        <f t="shared" si="29"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C31" s="107">
+        <v>0.5180991906019613</v>
+      </c>
+      <c r="D31" s="106" t="str">
+        <f t="shared" si="15"/>
+        <v>NIE</v>
+      </c>
+      <c r="E31" s="106" t="str">
+        <f t="shared" si="16"/>
+        <v>NIE</v>
+      </c>
+      <c r="F31" s="106" t="str">
+        <f t="shared" si="17"/>
+        <v>NIE</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H31" s="107">
+        <v>1.5</v>
+      </c>
+      <c r="I31" s="106" t="str">
+        <f t="shared" si="18"/>
+        <v>NIE</v>
+      </c>
+      <c r="J31" s="106" t="str">
+        <f t="shared" si="19"/>
+        <v>NIE</v>
+      </c>
+      <c r="K31" s="106" t="str">
+        <f t="shared" si="20"/>
+        <v>NIE</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M31" s="107">
+        <v>0.34942907183532329</v>
+      </c>
+      <c r="N31" s="106" t="str">
+        <f t="shared" si="21"/>
+        <v>NIE</v>
+      </c>
+      <c r="O31" s="106" t="str">
+        <f t="shared" si="22"/>
+        <v>NIE</v>
+      </c>
+      <c r="P31" s="106" t="str">
+        <f t="shared" si="23"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="R31" s="107">
+        <v>0</v>
+      </c>
+      <c r="S31" s="106" t="str">
+        <f t="shared" si="24"/>
+        <v>NIE</v>
+      </c>
+      <c r="T31" s="106" t="str">
+        <f t="shared" si="25"/>
+        <v>NIE</v>
+      </c>
+      <c r="U31" s="106" t="str">
+        <f t="shared" si="26"/>
+        <v>NIE</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="W31" s="107">
+        <v>1.5704058335674127</v>
+      </c>
+      <c r="X31" s="106" t="str">
+        <f t="shared" si="27"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y31" s="106" t="str">
+        <f t="shared" si="28"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z31" s="106" t="str">
+        <f t="shared" si="29"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="107">
+        <v>0.39785382943228254</v>
+      </c>
+      <c r="D32" s="106" t="str">
+        <f t="shared" si="15"/>
+        <v>NIE</v>
+      </c>
+      <c r="E32" s="106" t="str">
+        <f t="shared" si="16"/>
+        <v>NIE</v>
+      </c>
+      <c r="F32" s="106" t="str">
+        <f t="shared" si="17"/>
+        <v>NIE</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H32" s="107">
+        <v>1.5</v>
+      </c>
+      <c r="I32" s="106" t="str">
+        <f t="shared" si="18"/>
+        <v>NIE</v>
+      </c>
+      <c r="J32" s="106" t="str">
+        <f t="shared" si="19"/>
+        <v>NIE</v>
+      </c>
+      <c r="K32" s="106" t="str">
+        <f t="shared" si="20"/>
+        <v>NIE</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M32" s="107">
+        <v>0.3333985412823931</v>
+      </c>
+      <c r="N32" s="106" t="str">
+        <f t="shared" si="21"/>
+        <v>NIE</v>
+      </c>
+      <c r="O32" s="106" t="str">
+        <f t="shared" si="22"/>
+        <v>NIE</v>
+      </c>
+      <c r="P32" s="106" t="str">
+        <f t="shared" si="23"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="R32" s="107">
+        <v>1.7203961682003525E-14</v>
+      </c>
+      <c r="S32" s="106" t="str">
+        <f t="shared" si="24"/>
+        <v>NIE</v>
+      </c>
+      <c r="T32" s="106" t="str">
+        <f t="shared" si="25"/>
+        <v>NIE</v>
+      </c>
+      <c r="U32" s="106" t="str">
+        <f t="shared" si="26"/>
+        <v>NIE</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W32" s="107">
+        <v>1.5704058335674127</v>
+      </c>
+      <c r="X32" s="106" t="str">
+        <f t="shared" si="27"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y32" s="106" t="str">
+        <f t="shared" si="28"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z32" s="106" t="str">
+        <f t="shared" si="29"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>7</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" s="107">
+        <v>0.1930953408088831</v>
+      </c>
+      <c r="D33" s="106" t="str">
+        <f t="shared" si="15"/>
+        <v>NIE</v>
+      </c>
+      <c r="E33" s="106" t="str">
+        <f t="shared" si="16"/>
+        <v>NIE</v>
+      </c>
+      <c r="F33" s="106" t="str">
+        <f t="shared" si="17"/>
+        <v>NIE</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H33" s="107">
+        <v>1.5</v>
+      </c>
+      <c r="I33" s="106" t="str">
+        <f t="shared" si="18"/>
+        <v>NIE</v>
+      </c>
+      <c r="J33" s="106" t="str">
+        <f t="shared" si="19"/>
+        <v>NIE</v>
+      </c>
+      <c r="K33" s="106" t="str">
+        <f t="shared" si="20"/>
+        <v>NIE</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="M33" s="107">
+        <v>1.4062738918428519</v>
+      </c>
+      <c r="N33" s="106" t="str">
+        <f t="shared" si="21"/>
+        <v>NIE</v>
+      </c>
+      <c r="O33" s="106" t="str">
+        <f t="shared" si="22"/>
+        <v>NIE</v>
+      </c>
+      <c r="P33" s="106" t="str">
+        <f t="shared" si="23"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="R33" s="107">
+        <v>5.7346538940012409E-15</v>
+      </c>
+      <c r="S33" s="106" t="str">
+        <f t="shared" si="24"/>
+        <v>NIE</v>
+      </c>
+      <c r="T33" s="106" t="str">
+        <f t="shared" si="25"/>
+        <v>NIE</v>
+      </c>
+      <c r="U33" s="106" t="str">
+        <f t="shared" si="26"/>
+        <v>NIE</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="W33" s="107">
+        <v>1.5704058335674127</v>
+      </c>
+      <c r="X33" s="106" t="str">
+        <f t="shared" si="27"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y33" s="106" t="str">
+        <f t="shared" si="28"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z33" s="106" t="str">
+        <f t="shared" si="29"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>8</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C34" s="107">
+        <v>0.40931266640592978</v>
+      </c>
+      <c r="D34" s="106" t="str">
+        <f t="shared" si="15"/>
+        <v>NIE</v>
+      </c>
+      <c r="E34" s="106" t="str">
+        <f t="shared" si="16"/>
+        <v>NIE</v>
+      </c>
+      <c r="F34" s="106" t="str">
+        <f t="shared" si="17"/>
+        <v>NIE</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H34" s="107">
+        <v>1.5</v>
+      </c>
+      <c r="I34" s="106" t="str">
+        <f t="shared" si="18"/>
+        <v>NIE</v>
+      </c>
+      <c r="J34" s="106" t="str">
+        <f t="shared" si="19"/>
+        <v>NIE</v>
+      </c>
+      <c r="K34" s="106" t="str">
+        <f t="shared" si="20"/>
+        <v>NIE</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="M34" s="107">
+        <v>1.1515491262333664</v>
+      </c>
+      <c r="N34" s="106" t="str">
+        <f t="shared" si="21"/>
+        <v>NIE</v>
+      </c>
+      <c r="O34" s="106" t="str">
+        <f t="shared" si="22"/>
+        <v>NIE</v>
+      </c>
+      <c r="P34" s="106" t="str">
+        <f t="shared" si="23"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="R34" s="107">
+        <v>0</v>
+      </c>
+      <c r="S34" s="106" t="str">
+        <f t="shared" si="24"/>
+        <v>NIE</v>
+      </c>
+      <c r="T34" s="106" t="str">
+        <f t="shared" si="25"/>
+        <v>NIE</v>
+      </c>
+      <c r="U34" s="106" t="str">
+        <f t="shared" si="26"/>
+        <v>NIE</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="W34" s="107">
+        <v>1.5630363010700408</v>
+      </c>
+      <c r="X34" s="106" t="str">
+        <f t="shared" si="27"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y34" s="106" t="str">
+        <f t="shared" si="28"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z34" s="106" t="str">
+        <f t="shared" si="29"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C35" s="107">
+        <v>0.3267742103257183</v>
+      </c>
+      <c r="D35" s="106" t="str">
+        <f t="shared" si="15"/>
+        <v>NIE</v>
+      </c>
+      <c r="E35" s="106" t="str">
+        <f t="shared" si="16"/>
+        <v>NIE</v>
+      </c>
+      <c r="F35" s="106" t="str">
+        <f t="shared" si="17"/>
+        <v>NIE</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H35" s="107">
+        <v>1.5</v>
+      </c>
+      <c r="I35" s="106" t="str">
+        <f t="shared" si="18"/>
+        <v>NIE</v>
+      </c>
+      <c r="J35" s="106" t="str">
+        <f t="shared" si="19"/>
+        <v>NIE</v>
+      </c>
+      <c r="K35" s="106" t="str">
+        <f t="shared" si="20"/>
+        <v>NIE</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="M35" s="107">
+        <v>0.28658233794914084</v>
+      </c>
+      <c r="N35" s="106" t="str">
+        <f t="shared" si="21"/>
+        <v>NIE</v>
+      </c>
+      <c r="O35" s="106" t="str">
+        <f t="shared" si="22"/>
+        <v>NIE</v>
+      </c>
+      <c r="P35" s="106" t="str">
+        <f t="shared" si="23"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="R35" s="107">
+        <v>-1.0000000000000002</v>
+      </c>
+      <c r="S35" s="106" t="str">
+        <f t="shared" si="24"/>
+        <v>NIE</v>
+      </c>
+      <c r="T35" s="106" t="str">
+        <f t="shared" si="25"/>
+        <v>NIE</v>
+      </c>
+      <c r="U35" s="106" t="str">
+        <f t="shared" si="26"/>
+        <v>NIE</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="W35" s="107">
+        <v>1.5558635037078867</v>
+      </c>
+      <c r="X35" s="106" t="str">
+        <f t="shared" si="27"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y35" s="106" t="str">
+        <f t="shared" si="28"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z35" s="106" t="str">
+        <f t="shared" si="29"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>10</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C36" s="107">
+        <v>0.55617784038679263</v>
+      </c>
+      <c r="D36" s="106" t="str">
+        <f t="shared" si="15"/>
+        <v>NIE</v>
+      </c>
+      <c r="E36" s="106" t="str">
+        <f t="shared" si="16"/>
+        <v>NIE</v>
+      </c>
+      <c r="F36" s="106" t="str">
+        <f t="shared" si="17"/>
+        <v>NIE</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H36" s="107">
+        <v>1.5</v>
+      </c>
+      <c r="I36" s="106" t="str">
+        <f t="shared" si="18"/>
+        <v>NIE</v>
+      </c>
+      <c r="J36" s="106" t="str">
+        <f t="shared" si="19"/>
+        <v>NIE</v>
+      </c>
+      <c r="K36" s="106" t="str">
+        <f t="shared" si="20"/>
+        <v>NIE</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M36" s="107">
+        <v>0.28092467518842346</v>
+      </c>
+      <c r="N36" s="106" t="str">
+        <f t="shared" si="21"/>
+        <v>NIE</v>
+      </c>
+      <c r="O36" s="106" t="str">
+        <f t="shared" si="22"/>
+        <v>NIE</v>
+      </c>
+      <c r="P36" s="106" t="str">
+        <f t="shared" si="23"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="R36" s="107">
+        <v>-1.0000000000000002</v>
+      </c>
+      <c r="S36" s="106" t="str">
+        <f t="shared" si="24"/>
+        <v>NIE</v>
+      </c>
+      <c r="T36" s="106" t="str">
+        <f t="shared" si="25"/>
+        <v>NIE</v>
+      </c>
+      <c r="U36" s="106" t="str">
+        <f t="shared" si="26"/>
+        <v>NIE</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="W36" s="107">
+        <v>1.5558635037078867</v>
+      </c>
+      <c r="X36" s="106" t="str">
+        <f t="shared" si="27"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y36" s="106" t="str">
+        <f t="shared" si="28"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z36" s="106" t="str">
+        <f t="shared" si="29"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>11</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C37" s="107">
+        <v>0.22999655931141569</v>
+      </c>
+      <c r="D37" s="106" t="str">
+        <f t="shared" si="15"/>
+        <v>NIE</v>
+      </c>
+      <c r="E37" s="106" t="str">
+        <f t="shared" si="16"/>
+        <v>NIE</v>
+      </c>
+      <c r="F37" s="106" t="str">
+        <f t="shared" si="17"/>
+        <v>NIE</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H37" s="107">
+        <v>1.5</v>
+      </c>
+      <c r="I37" s="106" t="str">
+        <f t="shared" si="18"/>
+        <v>NIE</v>
+      </c>
+      <c r="J37" s="106" t="str">
+        <f t="shared" si="19"/>
+        <v>NIE</v>
+      </c>
+      <c r="K37" s="106" t="str">
+        <f t="shared" si="20"/>
+        <v>NIE</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="M37" s="107">
+        <v>0.16406635705454675</v>
+      </c>
+      <c r="N37" s="106" t="str">
+        <f t="shared" si="21"/>
+        <v>NIE</v>
+      </c>
+      <c r="O37" s="106" t="str">
+        <f t="shared" si="22"/>
+        <v>NIE</v>
+      </c>
+      <c r="P37" s="106" t="str">
+        <f t="shared" si="23"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R37" s="107">
+        <v>-0.42857142857142411</v>
+      </c>
+      <c r="S37" s="106" t="str">
+        <f t="shared" si="24"/>
+        <v>NIE</v>
+      </c>
+      <c r="T37" s="106" t="str">
+        <f t="shared" si="25"/>
+        <v>NIE</v>
+      </c>
+      <c r="U37" s="106" t="str">
+        <f t="shared" si="26"/>
+        <v>NIE</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="W37" s="107">
+        <v>1.5558635037078867</v>
+      </c>
+      <c r="X37" s="106" t="str">
+        <f t="shared" si="27"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y37" s="106" t="str">
+        <f t="shared" si="28"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z37" s="106" t="str">
+        <f t="shared" si="29"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>12</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C38" s="107">
+        <v>0.16671948278027565</v>
+      </c>
+      <c r="D38" s="106" t="str">
+        <f t="shared" si="15"/>
+        <v>NIE</v>
+      </c>
+      <c r="E38" s="106" t="str">
+        <f t="shared" si="16"/>
+        <v>NIE</v>
+      </c>
+      <c r="F38" s="106" t="str">
+        <f t="shared" si="17"/>
+        <v>NIE</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H38" s="107">
+        <v>1.5</v>
+      </c>
+      <c r="I38" s="106" t="str">
+        <f t="shared" si="18"/>
+        <v>NIE</v>
+      </c>
+      <c r="J38" s="106" t="str">
+        <f t="shared" si="19"/>
+        <v>NIE</v>
+      </c>
+      <c r="K38" s="106" t="str">
+        <f t="shared" si="20"/>
+        <v>NIE</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="M38" s="107">
+        <v>0.21187899894760559</v>
+      </c>
+      <c r="N38" s="106" t="str">
+        <f t="shared" si="21"/>
+        <v>NIE</v>
+      </c>
+      <c r="O38" s="106" t="str">
+        <f t="shared" si="22"/>
+        <v>NIE</v>
+      </c>
+      <c r="P38" s="106" t="str">
+        <f t="shared" si="23"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R38" s="107">
+        <v>-0.55708601453113593</v>
+      </c>
+      <c r="S38" s="106" t="str">
+        <f t="shared" si="24"/>
+        <v>NIE</v>
+      </c>
+      <c r="T38" s="106" t="str">
+        <f t="shared" si="25"/>
+        <v>NIE</v>
+      </c>
+      <c r="U38" s="106" t="str">
+        <f t="shared" si="26"/>
+        <v>NIE</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="W38" s="107">
+        <v>1.5485365601712722</v>
+      </c>
+      <c r="X38" s="106" t="str">
+        <f t="shared" si="27"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y38" s="106" t="str">
+        <f t="shared" si="28"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z38" s="106" t="str">
+        <f t="shared" si="29"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>13</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C39" s="107">
+        <v>0.25873422048355993</v>
+      </c>
+      <c r="D39" s="106" t="str">
+        <f t="shared" si="15"/>
+        <v>NIE</v>
+      </c>
+      <c r="E39" s="106" t="str">
+        <f t="shared" si="16"/>
+        <v>NIE</v>
+      </c>
+      <c r="F39" s="106" t="str">
+        <f t="shared" si="17"/>
+        <v>NIE</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H39" s="107">
+        <v>1.5</v>
+      </c>
+      <c r="I39" s="106" t="str">
+        <f t="shared" si="18"/>
+        <v>NIE</v>
+      </c>
+      <c r="J39" s="106" t="str">
+        <f t="shared" si="19"/>
+        <v>NIE</v>
+      </c>
+      <c r="K39" s="106" t="str">
+        <f t="shared" si="20"/>
+        <v>NIE</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M39" s="107">
+        <v>0.12539389111884169</v>
+      </c>
+      <c r="N39" s="106" t="str">
+        <f t="shared" si="21"/>
+        <v>NIE</v>
+      </c>
+      <c r="O39" s="106" t="str">
+        <f t="shared" si="22"/>
+        <v>NIE</v>
+      </c>
+      <c r="P39" s="106" t="str">
+        <f t="shared" si="23"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="R39" s="107">
+        <v>-0.36115755925730492</v>
+      </c>
+      <c r="S39" s="106" t="str">
+        <f t="shared" si="24"/>
+        <v>NIE</v>
+      </c>
+      <c r="T39" s="106" t="str">
+        <f t="shared" si="25"/>
+        <v>NIE</v>
+      </c>
+      <c r="U39" s="106" t="str">
+        <f t="shared" si="26"/>
+        <v>NIE</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="W39" s="107">
+        <v>1.5485365601712722</v>
+      </c>
+      <c r="X39" s="106" t="str">
+        <f t="shared" si="27"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y39" s="106" t="str">
+        <f t="shared" si="28"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z39" s="106" t="str">
+        <f t="shared" si="29"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>14</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="107">
+        <v>0.13259437045719119</v>
+      </c>
+      <c r="D40" s="106" t="str">
+        <f t="shared" si="15"/>
+        <v>NIE</v>
+      </c>
+      <c r="E40" s="106" t="str">
+        <f t="shared" si="16"/>
+        <v>NIE</v>
+      </c>
+      <c r="F40" s="106" t="str">
+        <f t="shared" si="17"/>
+        <v>NIE</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H40" s="107">
+        <v>1.5</v>
+      </c>
+      <c r="I40" s="106" t="str">
+        <f t="shared" si="18"/>
+        <v>NIE</v>
+      </c>
+      <c r="J40" s="106" t="str">
+        <f t="shared" si="19"/>
+        <v>NIE</v>
+      </c>
+      <c r="K40" s="106" t="str">
+        <f t="shared" si="20"/>
+        <v>NIE</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="M40" s="107">
+        <v>0.16406635705454675</v>
+      </c>
+      <c r="N40" s="106" t="str">
+        <f t="shared" si="21"/>
+        <v>NIE</v>
+      </c>
+      <c r="O40" s="106" t="str">
+        <f t="shared" si="22"/>
+        <v>NIE</v>
+      </c>
+      <c r="P40" s="106" t="str">
+        <f t="shared" si="23"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R40" s="107">
+        <v>-1.5000000000000002</v>
+      </c>
+      <c r="S40" s="106" t="str">
+        <f t="shared" si="24"/>
+        <v>NIE</v>
+      </c>
+      <c r="T40" s="106" t="str">
+        <f t="shared" si="25"/>
+        <v>NIE</v>
+      </c>
+      <c r="U40" s="106" t="str">
+        <f t="shared" si="26"/>
+        <v>NIE</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W40" s="107">
+        <v>1.5340615169733323</v>
+      </c>
+      <c r="X40" s="106" t="str">
+        <f t="shared" si="27"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y40" s="106" t="str">
+        <f t="shared" si="28"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z40" s="106" t="str">
+        <f t="shared" si="29"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>15</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C41" s="107">
+        <v>1.5788535584450648E-3</v>
+      </c>
+      <c r="D41" s="106" t="str">
+        <f t="shared" si="15"/>
+        <v>NIE</v>
+      </c>
+      <c r="E41" s="106" t="str">
+        <f t="shared" si="16"/>
+        <v>NIE</v>
+      </c>
+      <c r="F41" s="106" t="str">
+        <f t="shared" si="17"/>
+        <v>NIE</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H41" s="107">
+        <v>1.5</v>
+      </c>
+      <c r="I41" s="106" t="str">
+        <f t="shared" si="18"/>
+        <v>NIE</v>
+      </c>
+      <c r="J41" s="106" t="str">
+        <f t="shared" si="19"/>
+        <v>NIE</v>
+      </c>
+      <c r="K41" s="106" t="str">
+        <f t="shared" si="20"/>
+        <v>NIE</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M41" s="107">
+        <v>0.10342399224452895</v>
+      </c>
+      <c r="N41" s="106" t="str">
+        <f t="shared" si="21"/>
+        <v>NIE</v>
+      </c>
+      <c r="O41" s="106" t="str">
+        <f t="shared" si="22"/>
+        <v>NIE</v>
+      </c>
+      <c r="P41" s="106" t="str">
+        <f t="shared" si="23"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R41" s="107">
+        <v>-0.9999999999999859</v>
+      </c>
+      <c r="S41" s="106" t="str">
+        <f t="shared" si="24"/>
+        <v>NIE</v>
+      </c>
+      <c r="T41" s="106" t="str">
+        <f t="shared" si="25"/>
+        <v>NIE</v>
+      </c>
+      <c r="U41" s="106" t="str">
+        <f t="shared" si="26"/>
+        <v>NIE</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="W41" s="107">
+        <v>1.5340615169733323</v>
+      </c>
+      <c r="X41" s="106" t="str">
+        <f t="shared" si="27"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y41" s="106" t="str">
+        <f t="shared" si="28"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z41" s="106" t="str">
+        <f t="shared" si="29"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>16</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="107">
+        <v>0</v>
+      </c>
+      <c r="D42" s="106" t="str">
+        <f t="shared" si="15"/>
+        <v>NIE</v>
+      </c>
+      <c r="E42" s="106" t="str">
+        <f t="shared" si="16"/>
+        <v>NIE</v>
+      </c>
+      <c r="F42" s="106" t="str">
+        <f t="shared" si="17"/>
+        <v>NIE</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H42" s="107">
+        <v>1.5</v>
+      </c>
+      <c r="I42" s="106" t="str">
+        <f t="shared" si="18"/>
+        <v>NIE</v>
+      </c>
+      <c r="J42" s="106" t="str">
+        <f t="shared" si="19"/>
+        <v>NIE</v>
+      </c>
+      <c r="K42" s="106" t="str">
+        <f t="shared" si="20"/>
+        <v>NIE</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M42" s="107">
+        <v>0.10087183010558229</v>
+      </c>
+      <c r="N42" s="106" t="str">
+        <f t="shared" si="21"/>
+        <v>NIE</v>
+      </c>
+      <c r="O42" s="106" t="str">
+        <f t="shared" si="22"/>
+        <v>NIE</v>
+      </c>
+      <c r="P42" s="106" t="str">
+        <f t="shared" si="23"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="R42" s="107">
+        <v>-0.9999999999999859</v>
+      </c>
+      <c r="S42" s="106" t="str">
+        <f t="shared" si="24"/>
+        <v>NIE</v>
+      </c>
+      <c r="T42" s="106" t="str">
+        <f t="shared" si="25"/>
+        <v>NIE</v>
+      </c>
+      <c r="U42" s="106" t="str">
+        <f t="shared" si="26"/>
+        <v>NIE</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="W42" s="107">
+        <v>1.5340615169733323</v>
+      </c>
+      <c r="X42" s="106" t="str">
+        <f t="shared" si="27"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y42" s="106" t="str">
+        <f t="shared" si="28"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z42" s="106" t="str">
+        <f t="shared" si="29"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>17</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C43" s="107">
+        <v>-4.8850886735252383E-3</v>
+      </c>
+      <c r="D43" s="106" t="str">
+        <f t="shared" si="15"/>
+        <v>NIE</v>
+      </c>
+      <c r="E43" s="106" t="str">
+        <f t="shared" si="16"/>
+        <v>NIE</v>
+      </c>
+      <c r="F43" s="106" t="str">
+        <f t="shared" si="17"/>
+        <v>NIE</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H43" s="107">
+        <v>1.5</v>
+      </c>
+      <c r="I43" s="106" t="str">
+        <f t="shared" si="18"/>
+        <v>NIE</v>
+      </c>
+      <c r="J43" s="106" t="str">
+        <f t="shared" si="19"/>
+        <v>NIE</v>
+      </c>
+      <c r="K43" s="106" t="str">
+        <f t="shared" si="20"/>
+        <v>NIE</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M43" s="107">
+        <v>5.7000481235259928E-2</v>
+      </c>
+      <c r="N43" s="106" t="str">
+        <f t="shared" si="21"/>
+        <v>NIE</v>
+      </c>
+      <c r="O43" s="106" t="str">
+        <f t="shared" si="22"/>
+        <v>NIE</v>
+      </c>
+      <c r="P43" s="106" t="str">
+        <f t="shared" si="23"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="R43" s="107">
+        <v>-1.5000000000000002</v>
+      </c>
+      <c r="S43" s="106" t="str">
+        <f t="shared" si="24"/>
+        <v>NIE</v>
+      </c>
+      <c r="T43" s="106" t="str">
+        <f t="shared" si="25"/>
+        <v>NIE</v>
+      </c>
+      <c r="U43" s="106" t="str">
+        <f t="shared" si="26"/>
+        <v>NIE</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="W43" s="107">
+        <v>1.5341186408616172</v>
+      </c>
+      <c r="X43" s="106" t="str">
+        <f t="shared" si="27"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y43" s="106" t="str">
+        <f t="shared" si="28"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z43" s="106" t="str">
+        <f t="shared" si="29"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>18</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="107">
+        <v>-9.5119682746831764E-3</v>
+      </c>
+      <c r="D44" s="106" t="str">
+        <f t="shared" si="15"/>
+        <v>NIE</v>
+      </c>
+      <c r="E44" s="106" t="str">
+        <f t="shared" si="16"/>
+        <v>NIE</v>
+      </c>
+      <c r="F44" s="106" t="str">
+        <f t="shared" si="17"/>
+        <v>NIE</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H44" s="107">
+        <v>1.5</v>
+      </c>
+      <c r="I44" s="106" t="str">
+        <f t="shared" si="18"/>
+        <v>NIE</v>
+      </c>
+      <c r="J44" s="106" t="str">
+        <f t="shared" si="19"/>
+        <v>NIE</v>
+      </c>
+      <c r="K44" s="106" t="str">
+        <f t="shared" si="20"/>
+        <v>NIE</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M44" s="107">
+        <v>0</v>
+      </c>
+      <c r="N44" s="106" t="str">
+        <f t="shared" si="21"/>
+        <v>NIE</v>
+      </c>
+      <c r="O44" s="106" t="str">
+        <f t="shared" si="22"/>
+        <v>NIE</v>
+      </c>
+      <c r="P44" s="106" t="str">
+        <f t="shared" si="23"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="R44" s="107">
+        <v>-1.0000000000000071</v>
+      </c>
+      <c r="S44" s="106" t="str">
+        <f t="shared" si="24"/>
+        <v>NIE</v>
+      </c>
+      <c r="T44" s="106" t="str">
+        <f t="shared" si="25"/>
+        <v>NIE</v>
+      </c>
+      <c r="U44" s="106" t="str">
+        <f t="shared" si="26"/>
+        <v>NIE</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="W44" s="107">
+        <v>1.5341186408616172</v>
+      </c>
+      <c r="X44" s="106" t="str">
+        <f t="shared" si="27"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y44" s="106" t="str">
+        <f t="shared" si="28"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z44" s="106" t="str">
+        <f t="shared" si="29"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>19</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="107">
+        <v>-0.1539470110553543</v>
+      </c>
+      <c r="D45" s="106" t="str">
+        <f t="shared" si="15"/>
+        <v>NIE</v>
+      </c>
+      <c r="E45" s="106" t="str">
+        <f t="shared" si="16"/>
+        <v>NIE</v>
+      </c>
+      <c r="F45" s="106" t="str">
+        <f t="shared" si="17"/>
+        <v>NIE</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H45" s="107">
+        <v>1.5</v>
+      </c>
+      <c r="I45" s="106" t="str">
+        <f t="shared" si="18"/>
+        <v>NIE</v>
+      </c>
+      <c r="J45" s="106" t="str">
+        <f t="shared" si="19"/>
+        <v>NIE</v>
+      </c>
+      <c r="K45" s="106" t="str">
+        <f t="shared" si="20"/>
+        <v>NIE</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="M45" s="107">
+        <v>-6.6005154407906624E-4</v>
+      </c>
+      <c r="N45" s="106" t="str">
+        <f t="shared" si="21"/>
+        <v>NIE</v>
+      </c>
+      <c r="O45" s="106" t="str">
+        <f t="shared" si="22"/>
+        <v>NIE</v>
+      </c>
+      <c r="P45" s="106" t="str">
+        <f t="shared" si="23"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="R45" s="107">
+        <v>-1.5000000000000002</v>
+      </c>
+      <c r="S45" s="106" t="str">
+        <f t="shared" si="24"/>
+        <v>NIE</v>
+      </c>
+      <c r="T45" s="106" t="str">
+        <f t="shared" si="25"/>
+        <v>NIE</v>
+      </c>
+      <c r="U45" s="106" t="str">
+        <f t="shared" si="26"/>
+        <v>NIE</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W45" s="107">
+        <v>1.5056030464488221</v>
+      </c>
+      <c r="X45" s="106" t="str">
+        <f t="shared" si="27"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y45" s="106" t="str">
+        <f t="shared" si="28"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z45" s="106" t="str">
+        <f t="shared" si="29"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="94" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" s="95"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="94" t="s">
+        <v>204</v>
+      </c>
+      <c r="H47" s="95"/>
+      <c r="I47" s="95"/>
+      <c r="J47" s="95"/>
+      <c r="K47" s="96"/>
+      <c r="L47" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="M47" s="95"/>
+      <c r="N47" s="95"/>
+      <c r="O47" s="95"/>
+      <c r="P47" s="96"/>
+      <c r="Q47" s="94" t="s">
+        <v>213</v>
+      </c>
+      <c r="R47" s="95"/>
+      <c r="S47" s="95"/>
+      <c r="T47" s="95"/>
+      <c r="U47" s="96"/>
+      <c r="V47" s="94" t="s">
+        <v>202</v>
+      </c>
+      <c r="W47" s="95"/>
+      <c r="X47" s="95"/>
+      <c r="Y47" s="95"/>
+      <c r="Z47" s="96"/>
+    </row>
+    <row r="48" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="B48" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="C48" s="93" t="s">
+        <v>297</v>
+      </c>
+      <c r="D48" s="93" t="s">
+        <v>301</v>
+      </c>
+      <c r="E48" s="93"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="H48" s="93" t="s">
+        <v>297</v>
+      </c>
+      <c r="I48" s="93" t="s">
+        <v>301</v>
+      </c>
+      <c r="J48" s="93"/>
+      <c r="K48" s="93"/>
+      <c r="L48" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="M48" s="93" t="s">
+        <v>297</v>
+      </c>
+      <c r="N48" s="93" t="s">
+        <v>301</v>
+      </c>
+      <c r="O48" s="93"/>
+      <c r="P48" s="93"/>
+      <c r="Q48" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="R48" s="93" t="s">
+        <v>297</v>
+      </c>
+      <c r="S48" s="93" t="s">
+        <v>301</v>
+      </c>
+      <c r="T48" s="93"/>
+      <c r="U48" s="93"/>
+      <c r="V48" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="W48" s="93" t="s">
+        <v>297</v>
+      </c>
+      <c r="X48" s="93" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y48" s="93"/>
+      <c r="Z48" s="93"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A49" s="77"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="70" t="s">
+        <v>298</v>
+      </c>
+      <c r="E49" s="70" t="s">
+        <v>299</v>
+      </c>
+      <c r="F49" s="70" t="s">
+        <v>300</v>
+      </c>
+      <c r="G49" s="77"/>
+      <c r="H49" s="93"/>
+      <c r="I49" s="70" t="s">
+        <v>298</v>
+      </c>
+      <c r="J49" s="70" t="s">
+        <v>299</v>
+      </c>
+      <c r="K49" s="70" t="s">
+        <v>300</v>
+      </c>
+      <c r="L49" s="77"/>
+      <c r="M49" s="93"/>
+      <c r="N49" s="70" t="s">
+        <v>298</v>
+      </c>
+      <c r="O49" s="70" t="s">
+        <v>299</v>
+      </c>
+      <c r="P49" s="70" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q49" s="77"/>
+      <c r="R49" s="93"/>
+      <c r="S49" s="70" t="s">
+        <v>298</v>
+      </c>
+      <c r="T49" s="70" t="s">
+        <v>299</v>
+      </c>
+      <c r="U49" s="70" t="s">
+        <v>300</v>
+      </c>
+      <c r="V49" s="77"/>
+      <c r="W49" s="93"/>
+      <c r="X49" s="70" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y49" s="70" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z49" s="70" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>1</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C50" s="107">
+        <v>3.3364407827675242</v>
+      </c>
+      <c r="D50" s="3" t="str">
+        <f>IF(OR(C50 &gt;=$B$72, C50 &lt;=$B$73), "TAK", "NIE")</f>
+        <v>TAK</v>
+      </c>
+      <c r="E50" s="3" t="str">
+        <f>IF(OR(C50 &gt;=$C$72, C50 &lt;=$C$73), "TAK", "NIE")</f>
+        <v>TAK</v>
+      </c>
+      <c r="F50" s="106" t="str">
+        <f>IF(OR(C50 &gt;=$D$72, C50 &lt;=$D$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H50" s="107">
+        <v>5.2511144052031984</v>
+      </c>
+      <c r="I50" s="3" t="str">
+        <f>IF(OR(H50 &gt;=$B$72, H50 &lt;=$B$73), "TAK", "NIE")</f>
+        <v>TAK</v>
+      </c>
+      <c r="J50" s="3" t="str">
+        <f>IF(OR(H50 &gt;=$C$72, H50 &lt;=$C$73), "TAK", "NIE")</f>
+        <v>TAK</v>
+      </c>
+      <c r="K50" s="3" t="str">
+        <f>IF(OR(H50 &gt;=$D$72, H50 &lt;=$D$73), "TAK", "NIE")</f>
+        <v>TAK</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M50" s="107">
+        <v>2.4482045284952245</v>
+      </c>
+      <c r="N50" s="3" t="str">
+        <f>IF(OR(M50 &gt;=$B$72, M50 &lt;=$B$73), "TAK", "NIE")</f>
+        <v>TAK</v>
+      </c>
+      <c r="O50" s="3" t="str">
+        <f>IF(OR(M50 &gt;=$C$72, M50 &lt;=$C$73), "TAK", "NIE")</f>
+        <v>TAK</v>
+      </c>
+      <c r="P50" s="106" t="str">
+        <f>IF(OR(M50 &gt;=$D$72, M50 &lt;=$D$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R50" s="107">
+        <v>2.8994781679566048</v>
+      </c>
+      <c r="S50" s="3" t="str">
+        <f>IF(OR(R50 &gt;=$B$72, R50 &lt;=$B$73), "TAK", "NIE")</f>
+        <v>TAK</v>
+      </c>
+      <c r="T50" s="3" t="str">
+        <f>IF(OR(R50 &gt;=$C$72, R50 &lt;=$C$73), "TAK", "NIE")</f>
+        <v>TAK</v>
+      </c>
+      <c r="U50" s="106" t="str">
+        <f>IF(OR(R50 &gt;=$D$72, R50 &lt;=$D$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="W50" s="101">
+        <v>2.4029766367283485</v>
+      </c>
+      <c r="X50" s="3" t="str">
+        <f>IF(OR(W50 &gt;=$B$72, W50 &lt;=$B$73), "TAK", "NIE")</f>
+        <v>TAK</v>
+      </c>
+      <c r="Y50" s="3" t="str">
+        <f>IF(OR(W50 &gt;=$C$72, W50 &lt;=$C$73), "TAK", "NIE")</f>
+        <v>TAK</v>
+      </c>
+      <c r="Z50" s="106" t="str">
+        <f>IF(OR(W50 &gt;=$D$72, W50 &lt;=$D$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>2</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C51" s="107">
+        <v>3.9981753275863334</v>
+      </c>
+      <c r="D51" s="3" t="str">
+        <f t="shared" ref="D51:D68" si="30">IF(OR(C51 &gt;=$B$72, C51 &lt;=$B$73), "TAK", "NIE")</f>
+        <v>TAK</v>
+      </c>
+      <c r="E51" s="3" t="str">
+        <f t="shared" ref="E51:E68" si="31">IF(OR(C51 &gt;=$C$72, C51 &lt;=$C$73), "TAK", "NIE")</f>
+        <v>TAK</v>
+      </c>
+      <c r="F51" s="3" t="str">
+        <f t="shared" ref="F51:F68" si="32">IF(OR(C51 &gt;=$D$72, C51 &lt;=$D$73), "TAK", "NIE")</f>
+        <v>TAK</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H51" s="107">
+        <v>4.7760176745470915</v>
+      </c>
+      <c r="I51" s="3" t="str">
+        <f t="shared" ref="I51:I68" si="33">IF(OR(H51 &gt;=$B$72, H51 &lt;=$B$73), "TAK", "NIE")</f>
+        <v>TAK</v>
+      </c>
+      <c r="J51" s="3" t="str">
+        <f t="shared" ref="J51:J68" si="34">IF(OR(H51 &gt;=$C$72, H51 &lt;=$C$73), "TAK", "NIE")</f>
+        <v>TAK</v>
+      </c>
+      <c r="K51" s="3" t="str">
+        <f t="shared" ref="K51:K68" si="35">IF(OR(H51 &gt;=$D$72, H51 &lt;=$D$73), "TAK", "NIE")</f>
+        <v>TAK</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M51" s="107">
+        <v>2.4482045284952245</v>
+      </c>
+      <c r="N51" s="3" t="str">
+        <f t="shared" ref="N51:N68" si="36">IF(OR(M51 &gt;=$B$72, M51 &lt;=$B$73), "TAK", "NIE")</f>
+        <v>TAK</v>
+      </c>
+      <c r="O51" s="3" t="str">
+        <f t="shared" ref="O51:O68" si="37">IF(OR(M51 &gt;=$C$72, M51 &lt;=$C$73), "TAK", "NIE")</f>
+        <v>TAK</v>
+      </c>
+      <c r="P51" s="106" t="str">
+        <f t="shared" ref="P51:P68" si="38">IF(OR(M51 &gt;=$D$72, M51 &lt;=$D$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R51" s="107">
+        <v>1.6994181299756947</v>
+      </c>
+      <c r="S51" s="106" t="str">
+        <f t="shared" ref="S51:S68" si="39">IF(OR(R51 &gt;=$B$72, R51 &lt;=$B$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="T51" s="106" t="str">
+        <f t="shared" ref="T51:T68" si="40">IF(OR(R51 &gt;=$C$72, R51 &lt;=$C$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="U51" s="106" t="str">
+        <f t="shared" ref="U51:U68" si="41">IF(OR(R51 &gt;=$D$72, R51 &lt;=$D$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="W51" s="101">
+        <v>2.2997833494440085</v>
+      </c>
+      <c r="X51" s="3" t="str">
+        <f t="shared" ref="X51:X68" si="42">IF(OR(W51 &gt;=$B$72, W51 &lt;=$B$73), "TAK", "NIE")</f>
+        <v>TAK</v>
+      </c>
+      <c r="Y51" s="3" t="str">
+        <f t="shared" ref="Y51:Y68" si="43">IF(OR(W51 &gt;=$C$72, W51 &lt;=$C$73), "TAK", "NIE")</f>
+        <v>TAK</v>
+      </c>
+      <c r="Z51" s="106" t="str">
+        <f t="shared" ref="Z51:Z68" si="44">IF(OR(W51 &gt;=$D$72, W51 &lt;=$D$73), "TAK", "NIE")</f>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>3</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C52" s="107">
+        <v>3.5367659695997333</v>
+      </c>
+      <c r="D52" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>TAK</v>
+      </c>
+      <c r="E52" s="3" t="str">
+        <f t="shared" si="31"/>
+        <v>TAK</v>
+      </c>
+      <c r="F52" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>TAK</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H52" s="107">
+        <v>5.0175184782194684</v>
+      </c>
+      <c r="I52" s="3" t="str">
+        <f t="shared" si="33"/>
+        <v>TAK</v>
+      </c>
+      <c r="J52" s="3" t="str">
+        <f t="shared" si="34"/>
+        <v>TAK</v>
+      </c>
+      <c r="K52" s="3" t="str">
+        <f t="shared" si="35"/>
+        <v>TAK</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M52" s="107">
+        <v>2.4482045284952245</v>
+      </c>
+      <c r="N52" s="3" t="str">
+        <f t="shared" si="36"/>
+        <v>TAK</v>
+      </c>
+      <c r="O52" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>TAK</v>
+      </c>
+      <c r="P52" s="106" t="str">
+        <f t="shared" si="38"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R52" s="107">
+        <v>1.5767492601144706</v>
+      </c>
+      <c r="S52" s="106" t="str">
+        <f t="shared" si="39"/>
+        <v>NIE</v>
+      </c>
+      <c r="T52" s="106" t="str">
+        <f t="shared" si="40"/>
+        <v>NIE</v>
+      </c>
+      <c r="U52" s="106" t="str">
+        <f t="shared" si="41"/>
+        <v>NIE</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="W52" s="101">
+        <v>3.1763765925161866</v>
+      </c>
+      <c r="X52" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>TAK</v>
+      </c>
+      <c r="Y52" s="3" t="str">
+        <f t="shared" si="43"/>
+        <v>TAK</v>
+      </c>
+      <c r="Z52" s="106" t="str">
+        <f t="shared" si="44"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>4</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C53" s="107">
+        <v>4.1507604980804578</v>
+      </c>
+      <c r="D53" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>TAK</v>
+      </c>
+      <c r="E53" s="3" t="str">
+        <f t="shared" si="31"/>
+        <v>TAK</v>
+      </c>
+      <c r="F53" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>TAK</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H53" s="107">
+        <v>4.7760176745470915</v>
+      </c>
+      <c r="I53" s="3" t="str">
+        <f t="shared" si="33"/>
+        <v>TAK</v>
+      </c>
+      <c r="J53" s="3" t="str">
+        <f t="shared" si="34"/>
+        <v>TAK</v>
+      </c>
+      <c r="K53" s="3" t="str">
+        <f t="shared" si="35"/>
+        <v>TAK</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M53" s="107">
+        <v>2.4482045284952245</v>
+      </c>
+      <c r="N53" s="3" t="str">
+        <f t="shared" si="36"/>
+        <v>TAK</v>
+      </c>
+      <c r="O53" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>TAK</v>
+      </c>
+      <c r="P53" s="106" t="str">
+        <f t="shared" si="38"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="R53" s="107">
+        <v>1.3008701827478779</v>
+      </c>
+      <c r="S53" s="106" t="str">
+        <f t="shared" si="39"/>
+        <v>NIE</v>
+      </c>
+      <c r="T53" s="106" t="str">
+        <f t="shared" si="40"/>
+        <v>NIE</v>
+      </c>
+      <c r="U53" s="106" t="str">
+        <f t="shared" si="41"/>
+        <v>NIE</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="W53" s="101">
+        <v>2.2606750764289116</v>
+      </c>
+      <c r="X53" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>TAK</v>
+      </c>
+      <c r="Y53" s="106" t="str">
+        <f t="shared" si="43"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z53" s="106" t="str">
+        <f t="shared" si="44"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>5</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C54" s="107">
+        <v>5.1283657070566484</v>
+      </c>
+      <c r="D54" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>TAK</v>
+      </c>
+      <c r="E54" s="3" t="str">
+        <f t="shared" si="31"/>
+        <v>TAK</v>
+      </c>
+      <c r="F54" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>TAK</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H54" s="107">
+        <v>4.1653102988770918</v>
+      </c>
+      <c r="I54" s="3" t="str">
+        <f t="shared" si="33"/>
+        <v>TAK</v>
+      </c>
+      <c r="J54" s="3" t="str">
+        <f t="shared" si="34"/>
+        <v>TAK</v>
+      </c>
+      <c r="K54" s="3" t="str">
+        <f t="shared" si="35"/>
+        <v>TAK</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M54" s="107">
+        <v>2.4482045284952245</v>
+      </c>
+      <c r="N54" s="3" t="str">
+        <f t="shared" si="36"/>
+        <v>TAK</v>
+      </c>
+      <c r="O54" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>TAK</v>
+      </c>
+      <c r="P54" s="106" t="str">
+        <f t="shared" si="38"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="R54" s="107">
+        <v>1.276062709024365</v>
+      </c>
+      <c r="S54" s="106" t="str">
+        <f t="shared" si="39"/>
+        <v>NIE</v>
+      </c>
+      <c r="T54" s="106" t="str">
+        <f t="shared" si="40"/>
+        <v>NIE</v>
+      </c>
+      <c r="U54" s="106" t="str">
+        <f t="shared" si="41"/>
+        <v>NIE</v>
+      </c>
+      <c r="V54" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="W54" s="101">
+        <v>4.2053062394886318</v>
+      </c>
+      <c r="X54" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>TAK</v>
+      </c>
+      <c r="Y54" s="3" t="str">
+        <f t="shared" si="43"/>
+        <v>TAK</v>
+      </c>
+      <c r="Z54" s="3" t="str">
+        <f t="shared" si="44"/>
+        <v>TAK</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>6</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C55" s="107">
+        <v>2.4719690438334117</v>
+      </c>
+      <c r="D55" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>TAK</v>
+      </c>
+      <c r="E55" s="3" t="str">
+        <f t="shared" si="31"/>
+        <v>TAK</v>
+      </c>
+      <c r="F55" s="106" t="str">
+        <f t="shared" si="32"/>
+        <v>NIE</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H55" s="107">
+        <v>3.5083744538876296</v>
+      </c>
+      <c r="I55" s="3" t="str">
+        <f t="shared" si="33"/>
+        <v>TAK</v>
+      </c>
+      <c r="J55" s="3" t="str">
+        <f t="shared" si="34"/>
+        <v>TAK</v>
+      </c>
+      <c r="K55" s="3" t="str">
+        <f t="shared" si="35"/>
+        <v>TAK</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="M55" s="107">
+        <v>2.4494897427831783</v>
+      </c>
+      <c r="N55" s="3" t="str">
+        <f t="shared" si="36"/>
+        <v>TAK</v>
+      </c>
+      <c r="O55" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>TAK</v>
+      </c>
+      <c r="P55" s="106" t="str">
+        <f t="shared" si="38"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="R55" s="107">
+        <v>1.0903452915146807</v>
+      </c>
+      <c r="S55" s="106" t="str">
+        <f t="shared" si="39"/>
+        <v>NIE</v>
+      </c>
+      <c r="T55" s="106" t="str">
+        <f t="shared" si="40"/>
+        <v>NIE</v>
+      </c>
+      <c r="U55" s="106" t="str">
+        <f t="shared" si="41"/>
+        <v>NIE</v>
+      </c>
+      <c r="V55" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="W55" s="101">
+        <v>2.4676129327117842</v>
+      </c>
+      <c r="X55" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>TAK</v>
+      </c>
+      <c r="Y55" s="3" t="str">
+        <f t="shared" si="43"/>
+        <v>TAK</v>
+      </c>
+      <c r="Z55" s="106" t="str">
+        <f t="shared" si="44"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>7</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C56" s="107">
+        <v>2.5047334175447267</v>
+      </c>
+      <c r="D56" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>TAK</v>
+      </c>
+      <c r="E56" s="3" t="str">
+        <f t="shared" si="31"/>
+        <v>TAK</v>
+      </c>
+      <c r="F56" s="106" t="str">
+        <f t="shared" si="32"/>
+        <v>NIE</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H56" s="107">
+        <v>3.8442696433664878</v>
+      </c>
+      <c r="I56" s="3" t="str">
+        <f t="shared" si="33"/>
+        <v>TAK</v>
+      </c>
+      <c r="J56" s="3" t="str">
+        <f t="shared" si="34"/>
+        <v>TAK</v>
+      </c>
+      <c r="K56" s="3" t="str">
+        <f t="shared" si="35"/>
+        <v>TAK</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M56" s="107">
+        <v>1.7612404150604257</v>
+      </c>
+      <c r="N56" s="106" t="str">
+        <f t="shared" si="36"/>
+        <v>NIE</v>
+      </c>
+      <c r="O56" s="106" t="str">
+        <f t="shared" si="37"/>
+        <v>NIE</v>
+      </c>
+      <c r="P56" s="106" t="str">
+        <f t="shared" si="38"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="R56" s="107">
+        <v>1.2553520670963998</v>
+      </c>
+      <c r="S56" s="106" t="str">
+        <f t="shared" si="39"/>
+        <v>NIE</v>
+      </c>
+      <c r="T56" s="106" t="str">
+        <f t="shared" si="40"/>
+        <v>NIE</v>
+      </c>
+      <c r="U56" s="106" t="str">
+        <f t="shared" si="41"/>
+        <v>NIE</v>
+      </c>
+      <c r="V56" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="W56" s="101">
+        <v>2.1283676480741835</v>
+      </c>
+      <c r="X56" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>TAK</v>
+      </c>
+      <c r="Y56" s="106" t="str">
+        <f t="shared" si="43"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z56" s="106" t="str">
+        <f t="shared" si="44"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>8</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C57" s="107">
+        <v>2.2553547223213064</v>
+      </c>
+      <c r="D57" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>TAK</v>
+      </c>
+      <c r="E57" s="106" t="str">
+        <f t="shared" si="31"/>
+        <v>NIE</v>
+      </c>
+      <c r="F57" s="106" t="str">
+        <f t="shared" si="32"/>
+        <v>NIE</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H57" s="107">
+        <v>2.8465424181483328</v>
+      </c>
+      <c r="I57" s="3" t="str">
+        <f t="shared" si="33"/>
+        <v>TAK</v>
+      </c>
+      <c r="J57" s="3" t="str">
+        <f t="shared" si="34"/>
+        <v>TAK</v>
+      </c>
+      <c r="K57" s="106" t="str">
+        <f t="shared" si="35"/>
+        <v>NIE</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="M57" s="107">
+        <v>2.4494897427831783</v>
+      </c>
+      <c r="N57" s="3" t="str">
+        <f t="shared" si="36"/>
+        <v>TAK</v>
+      </c>
+      <c r="O57" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>TAK</v>
+      </c>
+      <c r="P57" s="106" t="str">
+        <f t="shared" si="38"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="R57" s="107">
+        <v>0.79897224381690424</v>
+      </c>
+      <c r="S57" s="106" t="str">
+        <f t="shared" si="39"/>
+        <v>NIE</v>
+      </c>
+      <c r="T57" s="106" t="str">
+        <f t="shared" si="40"/>
+        <v>NIE</v>
+      </c>
+      <c r="U57" s="106" t="str">
+        <f t="shared" si="41"/>
+        <v>NIE</v>
+      </c>
+      <c r="V57" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="W57" s="101">
+        <v>0.95040614953436575</v>
+      </c>
+      <c r="X57" s="106" t="str">
+        <f t="shared" si="42"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y57" s="106" t="str">
+        <f t="shared" si="43"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z57" s="106" t="str">
+        <f t="shared" si="44"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>9</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C58" s="107">
+        <v>3.8526325478450785</v>
+      </c>
+      <c r="D58" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>TAK</v>
+      </c>
+      <c r="E58" s="3" t="str">
+        <f t="shared" si="31"/>
+        <v>TAK</v>
+      </c>
+      <c r="F58" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>TAK</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H58" s="107">
+        <v>1.3816985594155149</v>
+      </c>
+      <c r="I58" s="106" t="str">
+        <f t="shared" si="33"/>
+        <v>NIE</v>
+      </c>
+      <c r="J58" s="106" t="str">
+        <f t="shared" si="34"/>
+        <v>NIE</v>
+      </c>
+      <c r="K58" s="106" t="str">
+        <f t="shared" si="35"/>
+        <v>NIE</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="M58" s="107">
+        <v>1.7612404150604257</v>
+      </c>
+      <c r="N58" s="106" t="str">
+        <f t="shared" si="36"/>
+        <v>NIE</v>
+      </c>
+      <c r="O58" s="106" t="str">
+        <f t="shared" si="37"/>
+        <v>NIE</v>
+      </c>
+      <c r="P58" s="106" t="str">
+        <f t="shared" si="38"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="R58" s="107">
+        <v>0</v>
+      </c>
+      <c r="S58" s="106" t="str">
+        <f t="shared" si="39"/>
+        <v>NIE</v>
+      </c>
+      <c r="T58" s="106" t="str">
+        <f t="shared" si="40"/>
+        <v>NIE</v>
+      </c>
+      <c r="U58" s="106" t="str">
+        <f t="shared" si="41"/>
+        <v>NIE</v>
+      </c>
+      <c r="V58" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="W58" s="101">
+        <v>1.1863242846783522</v>
+      </c>
+      <c r="X58" s="106" t="str">
+        <f t="shared" si="42"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y58" s="106" t="str">
+        <f t="shared" si="43"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z58" s="106" t="str">
+        <f t="shared" si="44"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>10</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C59" s="107">
+        <v>3.7030257578413983</v>
+      </c>
+      <c r="D59" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>TAK</v>
+      </c>
+      <c r="E59" s="3" t="str">
+        <f t="shared" si="31"/>
+        <v>TAK</v>
+      </c>
+      <c r="F59" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>TAK</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H59" s="107">
+        <v>1.1861831761113222</v>
+      </c>
+      <c r="I59" s="106" t="str">
+        <f t="shared" si="33"/>
+        <v>NIE</v>
+      </c>
+      <c r="J59" s="106" t="str">
+        <f t="shared" si="34"/>
+        <v>NIE</v>
+      </c>
+      <c r="K59" s="106" t="str">
+        <f t="shared" si="35"/>
+        <v>NIE</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M59" s="107">
+        <v>1.9629242380390517</v>
+      </c>
+      <c r="N59" s="3" t="str">
+        <f t="shared" si="36"/>
+        <v>TAK</v>
+      </c>
+      <c r="O59" s="106" t="str">
+        <f t="shared" si="37"/>
+        <v>NIE</v>
+      </c>
+      <c r="P59" s="106" t="str">
+        <f t="shared" si="38"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="R59" s="107">
+        <v>-9.4275948658334219E-2</v>
+      </c>
+      <c r="S59" s="106" t="str">
+        <f t="shared" si="39"/>
+        <v>NIE</v>
+      </c>
+      <c r="T59" s="106" t="str">
+        <f t="shared" si="40"/>
+        <v>NIE</v>
+      </c>
+      <c r="U59" s="106" t="str">
+        <f t="shared" si="41"/>
+        <v>NIE</v>
+      </c>
+      <c r="V59" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="W59" s="101">
+        <v>0.84565816572455499</v>
+      </c>
+      <c r="X59" s="106" t="str">
+        <f t="shared" si="42"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y59" s="106" t="str">
+        <f t="shared" si="43"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z59" s="106" t="str">
+        <f t="shared" si="44"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>11</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C60" s="107">
+        <v>2.444080966976677</v>
+      </c>
+      <c r="D60" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>TAK</v>
+      </c>
+      <c r="E60" s="3" t="str">
+        <f t="shared" si="31"/>
+        <v>TAK</v>
+      </c>
+      <c r="F60" s="106" t="str">
+        <f t="shared" si="32"/>
+        <v>NIE</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H60" s="107">
+        <v>1.5549631660464474</v>
+      </c>
+      <c r="I60" s="106" t="str">
+        <f t="shared" si="33"/>
+        <v>NIE</v>
+      </c>
+      <c r="J60" s="106" t="str">
+        <f t="shared" si="34"/>
+        <v>NIE</v>
+      </c>
+      <c r="K60" s="106" t="str">
+        <f t="shared" si="35"/>
+        <v>NIE</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M60" s="107">
+        <v>1.9629242380390517</v>
+      </c>
+      <c r="N60" s="3" t="str">
+        <f t="shared" si="36"/>
+        <v>TAK</v>
+      </c>
+      <c r="O60" s="106" t="str">
+        <f t="shared" si="37"/>
+        <v>NIE</v>
+      </c>
+      <c r="P60" s="106" t="str">
+        <f t="shared" si="38"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R60" s="107">
+        <v>-0.42243898085134757</v>
+      </c>
+      <c r="S60" s="106" t="str">
+        <f t="shared" si="39"/>
+        <v>NIE</v>
+      </c>
+      <c r="T60" s="106" t="str">
+        <f t="shared" si="40"/>
+        <v>NIE</v>
+      </c>
+      <c r="U60" s="106" t="str">
+        <f t="shared" si="41"/>
+        <v>NIE</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="W60" s="101">
+        <v>0.50139778745283181</v>
+      </c>
+      <c r="X60" s="106" t="str">
+        <f t="shared" si="42"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y60" s="106" t="str">
+        <f t="shared" si="43"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z60" s="106" t="str">
+        <f t="shared" si="44"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>12</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C61" s="107">
+        <v>2.2496259138213497</v>
+      </c>
+      <c r="D61" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>TAK</v>
+      </c>
+      <c r="E61" s="106" t="str">
+        <f t="shared" si="31"/>
+        <v>NIE</v>
+      </c>
+      <c r="F61" s="106" t="str">
+        <f t="shared" si="32"/>
+        <v>NIE</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H61" s="107">
+        <v>2.3772174470791865</v>
+      </c>
+      <c r="I61" s="3" t="str">
+        <f t="shared" si="33"/>
+        <v>TAK</v>
+      </c>
+      <c r="J61" s="3" t="str">
+        <f t="shared" si="34"/>
+        <v>TAK</v>
+      </c>
+      <c r="K61" s="106" t="str">
+        <f t="shared" si="35"/>
+        <v>NIE</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M61" s="107">
+        <v>1.9629242380390517</v>
+      </c>
+      <c r="N61" s="3" t="str">
+        <f t="shared" si="36"/>
+        <v>TAK</v>
+      </c>
+      <c r="O61" s="106" t="str">
+        <f t="shared" si="37"/>
+        <v>NIE</v>
+      </c>
+      <c r="P61" s="106" t="str">
+        <f t="shared" si="38"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R61" s="107">
+        <v>-0.60440909157105993</v>
+      </c>
+      <c r="S61" s="106" t="str">
+        <f t="shared" si="39"/>
+        <v>NIE</v>
+      </c>
+      <c r="T61" s="106" t="str">
+        <f t="shared" si="40"/>
+        <v>NIE</v>
+      </c>
+      <c r="U61" s="106" t="str">
+        <f t="shared" si="41"/>
+        <v>NIE</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="W61" s="101">
+        <v>1.6544152967409718</v>
+      </c>
+      <c r="X61" s="106" t="str">
+        <f t="shared" si="42"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y61" s="106" t="str">
+        <f t="shared" si="43"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z61" s="106" t="str">
+        <f t="shared" si="44"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>13</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C62" s="107">
+        <v>3.1519361173003833</v>
+      </c>
+      <c r="D62" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>TAK</v>
+      </c>
+      <c r="E62" s="3" t="str">
+        <f t="shared" si="31"/>
+        <v>TAK</v>
+      </c>
+      <c r="F62" s="106" t="str">
+        <f t="shared" si="32"/>
+        <v>NIE</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H62" s="107">
+        <v>1.921537845661047</v>
+      </c>
+      <c r="I62" s="3" t="str">
+        <f t="shared" si="33"/>
+        <v>TAK</v>
+      </c>
+      <c r="J62" s="106" t="str">
+        <f t="shared" si="34"/>
+        <v>NIE</v>
+      </c>
+      <c r="K62" s="106" t="str">
+        <f t="shared" si="35"/>
+        <v>NIE</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M62" s="107">
+        <v>1.9629242380390517</v>
+      </c>
+      <c r="N62" s="3" t="str">
+        <f t="shared" si="36"/>
+        <v>TAK</v>
+      </c>
+      <c r="O62" s="106" t="str">
+        <f t="shared" si="37"/>
+        <v>NIE</v>
+      </c>
+      <c r="P62" s="106" t="str">
+        <f t="shared" si="38"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="R62" s="107">
+        <v>-1.0735562010942237</v>
+      </c>
+      <c r="S62" s="106" t="str">
+        <f t="shared" si="39"/>
+        <v>NIE</v>
+      </c>
+      <c r="T62" s="106" t="str">
+        <f t="shared" si="40"/>
+        <v>NIE</v>
+      </c>
+      <c r="U62" s="106" t="str">
+        <f t="shared" si="41"/>
+        <v>NIE</v>
+      </c>
+      <c r="V62" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="W62" s="101">
+        <v>1.0683998126078424</v>
+      </c>
+      <c r="X62" s="106" t="str">
+        <f t="shared" si="42"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y62" s="106" t="str">
+        <f t="shared" si="43"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z62" s="106" t="str">
+        <f t="shared" si="44"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>14</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C63" s="107">
+        <v>2.176909102357826</v>
+      </c>
+      <c r="D63" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>TAK</v>
+      </c>
+      <c r="E63" s="106" t="str">
+        <f t="shared" si="31"/>
+        <v>NIE</v>
+      </c>
+      <c r="F63" s="106" t="str">
+        <f t="shared" si="32"/>
+        <v>NIE</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H63" s="107">
+        <v>1.4126128673922573</v>
+      </c>
+      <c r="I63" s="106" t="str">
+        <f t="shared" si="33"/>
+        <v>NIE</v>
+      </c>
+      <c r="J63" s="106" t="str">
+        <f t="shared" si="34"/>
+        <v>NIE</v>
+      </c>
+      <c r="K63" s="106" t="str">
+        <f t="shared" si="35"/>
+        <v>NIE</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M63" s="107">
+        <v>1.9629242380390517</v>
+      </c>
+      <c r="N63" s="3" t="str">
+        <f t="shared" si="36"/>
+        <v>TAK</v>
+      </c>
+      <c r="O63" s="106" t="str">
+        <f t="shared" si="37"/>
+        <v>NIE</v>
+      </c>
+      <c r="P63" s="106" t="str">
+        <f t="shared" si="38"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="R63" s="107">
+        <v>-1.7662735933097147</v>
+      </c>
+      <c r="S63" s="106" t="str">
+        <f t="shared" si="39"/>
+        <v>NIE</v>
+      </c>
+      <c r="T63" s="106" t="str">
+        <f t="shared" si="40"/>
+        <v>NIE</v>
+      </c>
+      <c r="U63" s="106" t="str">
+        <f t="shared" si="41"/>
+        <v>NIE</v>
+      </c>
+      <c r="V63" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="W63" s="101">
+        <v>1.7652724231136201</v>
+      </c>
+      <c r="X63" s="106" t="str">
+        <f t="shared" si="42"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y63" s="106" t="str">
+        <f t="shared" si="43"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z63" s="106" t="str">
+        <f t="shared" si="44"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>15</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C64" s="107">
+        <v>1.9010361511759186</v>
+      </c>
+      <c r="D64" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>TAK</v>
+      </c>
+      <c r="E64" s="106" t="str">
+        <f t="shared" si="31"/>
+        <v>NIE</v>
+      </c>
+      <c r="F64" s="106" t="str">
+        <f t="shared" si="32"/>
+        <v>NIE</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H64" s="107">
+        <v>1.7650452162436578</v>
+      </c>
+      <c r="I64" s="106" t="str">
+        <f t="shared" si="33"/>
+        <v>NIE</v>
+      </c>
+      <c r="J64" s="106" t="str">
+        <f t="shared" si="34"/>
+        <v>NIE</v>
+      </c>
+      <c r="K64" s="106" t="str">
+        <f t="shared" si="35"/>
+        <v>NIE</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="M64" s="107">
+        <v>1.9639610121239317</v>
+      </c>
+      <c r="N64" s="3" t="str">
+        <f t="shared" si="36"/>
+        <v>TAK</v>
+      </c>
+      <c r="O64" s="106" t="str">
+        <f t="shared" si="37"/>
+        <v>NIE</v>
+      </c>
+      <c r="P64" s="106" t="str">
+        <f t="shared" si="38"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="R64" s="107">
+        <v>-1.146210919350692</v>
+      </c>
+      <c r="S64" s="106" t="str">
+        <f t="shared" si="39"/>
+        <v>NIE</v>
+      </c>
+      <c r="T64" s="106" t="str">
+        <f t="shared" si="40"/>
+        <v>NIE</v>
+      </c>
+      <c r="U64" s="106" t="str">
+        <f t="shared" si="41"/>
+        <v>NIE</v>
+      </c>
+      <c r="V64" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="W64" s="101">
+        <v>1.4058083020111252</v>
+      </c>
+      <c r="X64" s="106" t="str">
+        <f t="shared" si="42"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y64" s="106" t="str">
+        <f t="shared" si="43"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z64" s="106" t="str">
+        <f t="shared" si="44"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>16</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C65" s="107">
+        <v>1.4087595405408517</v>
+      </c>
+      <c r="D65" s="106" t="str">
+        <f t="shared" si="30"/>
+        <v>NIE</v>
+      </c>
+      <c r="E65" s="106" t="str">
+        <f t="shared" si="31"/>
+        <v>NIE</v>
+      </c>
+      <c r="F65" s="106" t="str">
+        <f t="shared" si="32"/>
+        <v>NIE</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H65" s="107">
+        <v>1.7650452162436578</v>
+      </c>
+      <c r="I65" s="106" t="str">
+        <f t="shared" si="33"/>
+        <v>NIE</v>
+      </c>
+      <c r="J65" s="106" t="str">
+        <f t="shared" si="34"/>
+        <v>NIE</v>
+      </c>
+      <c r="K65" s="106" t="str">
+        <f t="shared" si="35"/>
+        <v>NIE</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="M65" s="107">
+        <v>1.9639610121239317</v>
+      </c>
+      <c r="N65" s="3" t="str">
+        <f t="shared" si="36"/>
+        <v>TAK</v>
+      </c>
+      <c r="O65" s="106" t="str">
+        <f t="shared" si="37"/>
+        <v>NIE</v>
+      </c>
+      <c r="P65" s="106" t="str">
+        <f t="shared" si="38"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="R65" s="107">
+        <v>-1.0684404587109695</v>
+      </c>
+      <c r="S65" s="106" t="str">
+        <f t="shared" si="39"/>
+        <v>NIE</v>
+      </c>
+      <c r="T65" s="106" t="str">
+        <f t="shared" si="40"/>
+        <v>NIE</v>
+      </c>
+      <c r="U65" s="106" t="str">
+        <f t="shared" si="41"/>
+        <v>NIE</v>
+      </c>
+      <c r="V65" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="W65" s="101">
+        <v>1.1037649348856815</v>
+      </c>
+      <c r="X65" s="106" t="str">
+        <f t="shared" si="42"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y65" s="106" t="str">
+        <f t="shared" si="43"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z65" s="106" t="str">
+        <f t="shared" si="44"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>17</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C66" s="107">
+        <v>2.0270580903219084</v>
+      </c>
+      <c r="D66" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>TAK</v>
+      </c>
+      <c r="E66" s="106" t="str">
+        <f t="shared" si="31"/>
+        <v>NIE</v>
+      </c>
+      <c r="F66" s="106" t="str">
+        <f t="shared" si="32"/>
+        <v>NIE</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H66" s="107">
+        <v>2.713602101199871</v>
+      </c>
+      <c r="I66" s="3" t="str">
+        <f t="shared" si="33"/>
+        <v>TAK</v>
+      </c>
+      <c r="J66" s="3" t="str">
+        <f t="shared" si="34"/>
+        <v>TAK</v>
+      </c>
+      <c r="K66" s="106" t="str">
+        <f t="shared" si="35"/>
+        <v>NIE</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M66" s="107">
+        <v>1.3657992539899042</v>
+      </c>
+      <c r="N66" s="106" t="str">
+        <f t="shared" si="36"/>
+        <v>NIE</v>
+      </c>
+      <c r="O66" s="106" t="str">
+        <f t="shared" si="37"/>
+        <v>NIE</v>
+      </c>
+      <c r="P66" s="106" t="str">
+        <f t="shared" si="38"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="R66" s="107">
+        <v>-2.6885501092602211</v>
+      </c>
+      <c r="S66" s="3" t="str">
+        <f t="shared" si="39"/>
+        <v>TAK</v>
+      </c>
+      <c r="T66" s="3" t="str">
+        <f t="shared" si="40"/>
+        <v>TAK</v>
+      </c>
+      <c r="U66" s="106" t="str">
+        <f t="shared" si="41"/>
+        <v>NIE</v>
+      </c>
+      <c r="V66" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="W66" s="101">
+        <v>0.4733380140306564</v>
+      </c>
+      <c r="X66" s="106" t="str">
+        <f t="shared" si="42"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y66" s="106" t="str">
+        <f t="shared" si="43"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z66" s="106" t="str">
+        <f t="shared" si="44"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>18</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C67" s="107">
+        <v>1.7202598249053063</v>
+      </c>
+      <c r="D67" s="106" t="str">
+        <f t="shared" si="30"/>
+        <v>NIE</v>
+      </c>
+      <c r="E67" s="106" t="str">
+        <f t="shared" si="31"/>
+        <v>NIE</v>
+      </c>
+      <c r="F67" s="106" t="str">
+        <f t="shared" si="32"/>
+        <v>NIE</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H67" s="107">
+        <v>1.0476454436543698</v>
+      </c>
+      <c r="I67" s="106" t="str">
+        <f t="shared" si="33"/>
+        <v>NIE</v>
+      </c>
+      <c r="J67" s="106" t="str">
+        <f t="shared" si="34"/>
+        <v>NIE</v>
+      </c>
+      <c r="K67" s="106" t="str">
+        <f t="shared" si="35"/>
+        <v>NIE</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="M67" s="107">
+        <v>1.9639610121239317</v>
+      </c>
+      <c r="N67" s="3" t="str">
+        <f t="shared" si="36"/>
+        <v>TAK</v>
+      </c>
+      <c r="O67" s="106" t="str">
+        <f t="shared" si="37"/>
+        <v>NIE</v>
+      </c>
+      <c r="P67" s="106" t="str">
+        <f t="shared" si="38"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="R67" s="107">
+        <v>-0.78880713182490092</v>
+      </c>
+      <c r="S67" s="106" t="str">
+        <f t="shared" si="39"/>
+        <v>NIE</v>
+      </c>
+      <c r="T67" s="106" t="str">
+        <f t="shared" si="40"/>
+        <v>NIE</v>
+      </c>
+      <c r="U67" s="106" t="str">
+        <f t="shared" si="41"/>
+        <v>NIE</v>
+      </c>
+      <c r="V67" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W67" s="101">
+        <v>0.33576168182548177</v>
+      </c>
+      <c r="X67" s="106" t="str">
+        <f t="shared" si="42"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y67" s="106" t="str">
+        <f t="shared" si="43"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z67" s="106" t="str">
+        <f t="shared" si="44"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>19</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C68" s="107">
+        <v>1.0764924891336893</v>
+      </c>
+      <c r="D68" s="106" t="str">
+        <f t="shared" si="30"/>
+        <v>NIE</v>
+      </c>
+      <c r="E68" s="106" t="str">
+        <f t="shared" si="31"/>
+        <v>NIE</v>
+      </c>
+      <c r="F68" s="106" t="str">
+        <f t="shared" si="32"/>
+        <v>NIE</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H68" s="107">
+        <v>0.52868053263767978</v>
+      </c>
+      <c r="I68" s="106" t="str">
+        <f t="shared" si="33"/>
+        <v>NIE</v>
+      </c>
+      <c r="J68" s="106" t="str">
+        <f t="shared" si="34"/>
+        <v>NIE</v>
+      </c>
+      <c r="K68" s="106" t="str">
+        <f t="shared" si="35"/>
+        <v>NIE</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="M68" s="107">
+        <v>1.9639610121239317</v>
+      </c>
+      <c r="N68" s="3" t="str">
+        <f t="shared" si="36"/>
+        <v>TAK</v>
+      </c>
+      <c r="O68" s="106" t="str">
+        <f t="shared" si="37"/>
+        <v>NIE</v>
+      </c>
+      <c r="P68" s="106" t="str">
+        <f t="shared" si="38"/>
+        <v>NIE</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="R68" s="107">
+        <v>-1.0856799098831384</v>
+      </c>
+      <c r="S68" s="106" t="str">
+        <f t="shared" si="39"/>
+        <v>NIE</v>
+      </c>
+      <c r="T68" s="106" t="str">
+        <f t="shared" si="40"/>
+        <v>NIE</v>
+      </c>
+      <c r="U68" s="106" t="str">
+        <f t="shared" si="41"/>
+        <v>NIE</v>
+      </c>
+      <c r="V68" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="W68" s="101">
+        <v>0.18180208448911381</v>
+      </c>
+      <c r="X68" s="106" t="str">
+        <f t="shared" si="42"/>
+        <v>NIE</v>
+      </c>
+      <c r="Y68" s="106" t="str">
+        <f t="shared" si="43"/>
+        <v>NIE</v>
+      </c>
+      <c r="Z68" s="106" t="str">
+        <f t="shared" si="44"/>
+        <v>NIE</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B71" s="71" t="s">
+        <v>298</v>
+      </c>
+      <c r="C71" s="71" t="s">
+        <v>299</v>
+      </c>
+      <c r="D71" s="71" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B72" s="101">
+        <v>1.8595480375308981</v>
+      </c>
+      <c r="C72" s="101">
+        <v>2.2621571627982053</v>
+      </c>
+      <c r="D72" s="101">
+        <v>3.3553873313333953</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B73" s="1">
+        <f>-B72</f>
+        <v>-1.8595480375308981</v>
+      </c>
+      <c r="C73" s="1">
+        <f>-C72</f>
+        <v>-2.2621571627982053</v>
+      </c>
+      <c r="D73" s="1">
+        <f>-D72</f>
+        <v>-3.3553873313333953</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="63">
+    <mergeCell ref="V48:V49"/>
+    <mergeCell ref="W48:W49"/>
+    <mergeCell ref="X48:Z48"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="Q48:Q49"/>
+    <mergeCell ref="R48:R49"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:K47"/>
+    <mergeCell ref="L47:P47"/>
+    <mergeCell ref="Q47:U47"/>
+    <mergeCell ref="V47:Z47"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="V24:Z24"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22423,7 +29771,7 @@
       <c r="P2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="88"/>
+      <c r="R2" s="72"/>
       <c r="S2" s="31" t="s">
         <v>9</v>
       </c>
@@ -22486,10 +29834,10 @@
       <c r="P3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="89" t="s">
+      <c r="R3" s="73" t="s">
         <v>292</v>
       </c>
-      <c r="S3" s="89">
+      <c r="S3" s="73">
         <f>COUNTIF(B2:P2, "DS1")</f>
         <v>2</v>
       </c>
@@ -22559,15 +29907,15 @@
       <c r="P4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="73" t="s">
         <v>293</v>
       </c>
-      <c r="S4" s="89">
+      <c r="S4" s="73">
         <f t="shared" ref="S4:S5" si="0">COUNTIF(B3:P3, "DS1")</f>
         <v>4</v>
       </c>
       <c r="T4" s="1">
-        <f t="shared" ref="T4:U5" si="1">COUNTIF(B3:P3,"DS2")</f>
+        <f t="shared" ref="T4:T5" si="1">COUNTIF(B3:P3,"DS2")</f>
         <v>2</v>
       </c>
       <c r="U4" s="1">
@@ -22632,10 +29980,10 @@
       <c r="P5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="89" t="s">
+      <c r="R5" s="73" t="s">
         <v>294</v>
       </c>
-      <c r="S5" s="89">
+      <c r="S5" s="73">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -22644,7 +29992,7 @@
         <v>3</v>
       </c>
       <c r="U5" s="1">
-        <f t="shared" ref="U4:U5" si="4">COUNTIF(B4:P4,"DS3")</f>
+        <f t="shared" ref="U5" si="4">COUNTIF(B4:P4,"DS3")</f>
         <v>3</v>
       </c>
       <c r="V5" s="1">
@@ -22705,22 +30053,22 @@
       <c r="P6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="89" t="s">
+      <c r="R6" s="73" t="s">
         <v>295</v>
       </c>
-      <c r="S6" s="89">
+      <c r="S6" s="73">
         <f>COUNTIF(B2:P20, "DS1")</f>
         <v>83</v>
       </c>
-      <c r="T6" s="89">
+      <c r="T6" s="73">
         <f>COUNTIF(B2:P20, "DS2")</f>
         <v>34</v>
       </c>
-      <c r="U6" s="89">
+      <c r="U6" s="73">
         <f>COUNTIF(B2:P20, "DS3")</f>
         <v>70</v>
       </c>
-      <c r="V6" s="89">
+      <c r="V6" s="73">
         <f>COUNTIF(B2:P20, "DS1")</f>
         <v>83</v>
       </c>
@@ -23435,7 +30783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T20"/>
   <sheetViews>
@@ -23511,7 +30859,7 @@
       <c r="P1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="R1" s="88"/>
+      <c r="R1" s="72"/>
       <c r="S1" s="25" t="s">
         <v>10</v>
       </c>
@@ -23568,10 +30916,10 @@
       <c r="P2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="89" t="s">
+      <c r="R2" s="73" t="s">
         <v>292</v>
       </c>
-      <c r="S2" s="89">
+      <c r="S2" s="73">
         <f>COUNTIF(B2:P2, "Mediana")</f>
         <v>6</v>
       </c>
@@ -23629,10 +30977,10 @@
       <c r="P3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="89" t="s">
+      <c r="R3" s="73" t="s">
         <v>293</v>
       </c>
-      <c r="S3" s="89">
+      <c r="S3" s="73">
         <f t="shared" ref="S3:S4" si="0">COUNTIF(B3:P3, "Mediana")</f>
         <v>9</v>
       </c>
@@ -23690,10 +31038,10 @@
       <c r="P4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="73" t="s">
         <v>294</v>
       </c>
-      <c r="S4" s="89">
+      <c r="S4" s="73">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -23751,10 +31099,10 @@
       <c r="P5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="89" t="s">
+      <c r="R5" s="73" t="s">
         <v>295</v>
       </c>
-      <c r="S5" s="89">
+      <c r="S5" s="73">
         <f>COUNTIF(B2:P20, "Mediana")</f>
         <v>138</v>
       </c>
@@ -24520,7 +31868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P26"/>
   <sheetViews>
@@ -25557,10 +32905,10 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B23" s="89" t="s">
+      <c r="B23" s="73" t="s">
         <v>292</v>
       </c>
-      <c r="C23" s="89">
+      <c r="C23" s="73">
         <f>COUNTIF(B2:P2, "Klasteryzacja")</f>
         <v>8</v>
       </c>
@@ -25574,27 +32922,27 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="73" t="s">
         <v>293</v>
       </c>
-      <c r="C24" s="89">
-        <f t="shared" ref="C24:C26" si="0">COUNTIF(B3:P3, "Klasteryzacja")</f>
+      <c r="C24" s="73">
+        <f t="shared" ref="C24:C25" si="0">COUNTIF(B3:P3, "Klasteryzacja")</f>
         <v>8</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" ref="D24:D26" si="1">COUNTIF(B3:P3,"Bootstrap")</f>
+        <f t="shared" ref="D24:D25" si="1">COUNTIF(B3:P3,"Bootstrap")</f>
         <v>3</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" ref="E24:E26" si="2">COUNTIF(B5:P5, "1 szablon = 1 klasa")</f>
+        <f t="shared" ref="E24:E25" si="2">COUNTIF(B5:P5, "1 szablon = 1 klasa")</f>
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="73" t="s">
         <v>294</v>
       </c>
-      <c r="C25" s="89">
+      <c r="C25" s="73">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -25608,10 +32956,10 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B26" s="89" t="s">
+      <c r="B26" s="73" t="s">
         <v>295</v>
       </c>
-      <c r="C26" s="89">
+      <c r="C26" s="73">
         <f>COUNTIF(B2:P20, "Klasteryzacja")</f>
         <v>93</v>
       </c>
@@ -25667,7 +33015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V21"/>
   <sheetViews>
@@ -25784,7 +33132,7 @@
       <c r="P2" s="12">
         <v>10</v>
       </c>
-      <c r="R2" s="88"/>
+      <c r="R2" s="72"/>
       <c r="S2" s="13">
         <v>1</v>
       </c>
@@ -25847,22 +33195,22 @@
       <c r="P3" s="12">
         <v>10</v>
       </c>
-      <c r="R3" s="89" t="s">
+      <c r="R3" s="73" t="s">
         <v>292</v>
       </c>
-      <c r="S3" s="89">
+      <c r="S3" s="73">
         <f>COUNTIF(B2:P2, 1)</f>
         <v>4</v>
       </c>
-      <c r="T3" s="89">
+      <c r="T3" s="73">
         <f>COUNTIF(B2:P2, 3)</f>
         <v>4</v>
       </c>
-      <c r="U3" s="89">
+      <c r="U3" s="73">
         <f>COUNTIF(B2:P2, 5)</f>
         <v>2</v>
       </c>
-      <c r="V3" s="89">
+      <c r="V3" s="73">
         <f>COUNTIF(B2:P2, 10)</f>
         <v>5</v>
       </c>
@@ -25916,22 +33264,22 @@
       <c r="P4" s="12">
         <v>10</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="73" t="s">
         <v>293</v>
       </c>
-      <c r="S4" s="89">
+      <c r="S4" s="73">
         <f t="shared" ref="S4:S5" si="0">COUNTIF(B3:P3, 1)</f>
         <v>4</v>
       </c>
-      <c r="T4" s="89">
+      <c r="T4" s="73">
         <f t="shared" ref="T4:T5" si="1">COUNTIF(B3:P3, 3)</f>
         <v>4</v>
       </c>
-      <c r="U4" s="89">
+      <c r="U4" s="73">
         <f t="shared" ref="U4:U5" si="2">COUNTIF(B3:P3, 5)</f>
         <v>2</v>
       </c>
-      <c r="V4" s="89">
+      <c r="V4" s="73">
         <f t="shared" ref="V4:V5" si="3">COUNTIF(B3:P3, 10)</f>
         <v>5</v>
       </c>
@@ -25985,22 +33333,22 @@
       <c r="P5" s="14">
         <v>5</v>
       </c>
-      <c r="R5" s="89" t="s">
+      <c r="R5" s="73" t="s">
         <v>294</v>
       </c>
-      <c r="S5" s="89">
+      <c r="S5" s="73">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="T5" s="89">
+      <c r="T5" s="73">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U5" s="89">
+      <c r="U5" s="73">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="V5" s="89">
+      <c r="V5" s="73">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
@@ -26054,22 +33402,22 @@
       <c r="P6" s="12">
         <v>10</v>
       </c>
-      <c r="R6" s="89" t="s">
+      <c r="R6" s="73" t="s">
         <v>295</v>
       </c>
-      <c r="S6" s="89">
+      <c r="S6" s="73">
         <f>COUNTIF(B2:P20, 1)</f>
         <v>44</v>
       </c>
-      <c r="T6" s="89">
+      <c r="T6" s="73">
         <f>COUNTIF(B2:P20, 3)</f>
         <v>82</v>
       </c>
-      <c r="U6" s="89">
+      <c r="U6" s="73">
         <f>COUNTIF(B2:P20, 5)</f>
         <v>80</v>
       </c>
-      <c r="V6" s="89">
+      <c r="V6" s="73">
         <f>COUNTIF(B2:P20, 10)</f>
         <v>79</v>
       </c>
@@ -26786,7 +34134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P27"/>
   <sheetViews>
@@ -27810,7 +35158,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="88"/>
+      <c r="B23" s="72"/>
       <c r="C23" s="33" t="s">
         <v>194</v>
       </c>
@@ -27819,10 +35167,10 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="73" t="s">
         <v>292</v>
       </c>
-      <c r="C24" s="89">
+      <c r="C24" s="73">
         <f>COUNTIF(B2:P2, "Średnia, Suma")</f>
         <v>8</v>
       </c>
@@ -27832,23 +35180,23 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="73" t="s">
         <v>293</v>
       </c>
-      <c r="C25" s="89">
-        <f t="shared" ref="C25:C27" si="0">COUNTIF(B3:P3, "Średnia, Suma")</f>
+      <c r="C25" s="73">
+        <f t="shared" ref="C25:C26" si="0">COUNTIF(B3:P3, "Średnia, Suma")</f>
         <v>8</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ref="D25:D27" si="1">COUNTIF(B3:P3,"Oddzielnie")</f>
+        <f t="shared" ref="D25:D26" si="1">COUNTIF(B3:P3,"Oddzielnie")</f>
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B26" s="89" t="s">
+      <c r="B26" s="73" t="s">
         <v>294</v>
       </c>
-      <c r="C26" s="89">
+      <c r="C26" s="73">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -27858,10 +35206,10 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="73" t="s">
         <v>295</v>
       </c>
-      <c r="C27" s="89">
+      <c r="C27" s="73">
         <f>COUNTIF(B2:P20, "Średnia, Suma")</f>
         <v>192</v>
       </c>
@@ -27875,1201 +35223,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="62" t="s">
-        <v>195</v>
-      </c>
-      <c r="E1" s="62" t="s">
-        <v>196</v>
-      </c>
-      <c r="F1" s="62" t="s">
-        <v>197</v>
-      </c>
-      <c r="G1" s="62" t="s">
-        <v>208</v>
-      </c>
-      <c r="H1" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="I1" s="62" t="s">
-        <v>199</v>
-      </c>
-      <c r="J1" s="62" t="s">
-        <v>200</v>
-      </c>
-      <c r="K1" s="62" t="s">
-        <v>209</v>
-      </c>
-      <c r="L1" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="M1" s="62" t="s">
-        <v>202</v>
-      </c>
-      <c r="N1" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="O1" s="62" t="s">
-        <v>204</v>
-      </c>
-      <c r="P1" s="62" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q1" s="62" t="s">
-        <v>206</v>
-      </c>
-      <c r="R1" s="63" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
-        <v>288</v>
-      </c>
-      <c r="B2" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="66">
-        <v>0.14782451550721151</v>
-      </c>
-      <c r="E2" s="68">
-        <v>0.69850574712643676</v>
-      </c>
-      <c r="F2" s="66">
-        <v>0.53827956989247305</v>
-      </c>
-      <c r="G2" s="68">
-        <v>0.97830330330330317</v>
-      </c>
-      <c r="H2" s="68">
-        <v>0.84269162210338666</v>
-      </c>
-      <c r="I2" s="68">
-        <v>0.73735672720860523</v>
-      </c>
-      <c r="J2" s="68">
-        <v>0.96</v>
-      </c>
-      <c r="K2" s="68">
-        <v>0.84693611587149231</v>
-      </c>
-      <c r="L2" s="68">
-        <v>0.96103896103896103</v>
-      </c>
-      <c r="M2" s="66">
-        <v>0.99437928655951391</v>
-      </c>
-      <c r="N2" s="68">
-        <v>0.66557422969187674</v>
-      </c>
-      <c r="O2" s="68">
-        <v>0.86464646464646466</v>
-      </c>
-      <c r="P2" s="66">
-        <v>0.96078431372549</v>
-      </c>
-      <c r="Q2" s="68">
-        <v>0.52762561218937054</v>
-      </c>
-      <c r="R2" s="68">
-        <v>0.841015065999418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="67">
-        <v>0.17610753502461191</v>
-      </c>
-      <c r="E3" s="69">
-        <v>0.69256978653530388</v>
-      </c>
-      <c r="F3" s="67">
-        <v>0.54849462365591395</v>
-      </c>
-      <c r="G3" s="69">
-        <v>0.97560060060060061</v>
-      </c>
-      <c r="H3" s="69">
-        <v>0.58672014260249561</v>
-      </c>
-      <c r="I3" s="69">
-        <v>0.72887497795803213</v>
-      </c>
-      <c r="J3" s="67">
-        <v>0.96</v>
-      </c>
-      <c r="K3" s="69">
-        <v>0.81538417742315183</v>
-      </c>
-      <c r="L3" s="69">
-        <v>0.92943722943722951</v>
-      </c>
-      <c r="M3" s="67">
-        <v>0.99837928358634964</v>
-      </c>
-      <c r="N3" s="69">
-        <v>0.5047759103641456</v>
-      </c>
-      <c r="O3" s="69">
-        <v>0.79797979797979812</v>
-      </c>
-      <c r="P3" s="67">
-        <v>0.97189542483660118</v>
-      </c>
-      <c r="Q3" s="69">
-        <v>0.31398966080174129</v>
-      </c>
-      <c r="R3" s="69">
-        <v>0.73258480955862648</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="66">
-        <v>0.12889286656798971</v>
-      </c>
-      <c r="E4" s="68">
-        <v>0.70552545155993429</v>
-      </c>
-      <c r="F4" s="66">
-        <v>0.51537634408602151</v>
-      </c>
-      <c r="G4" s="66">
-        <v>0.97830330330330317</v>
-      </c>
-      <c r="H4" s="65">
-        <v>0.8367201426024955</v>
-      </c>
-      <c r="I4" s="66">
-        <v>0.72140715923117615</v>
-      </c>
-      <c r="J4" s="68">
-        <v>0.96</v>
-      </c>
-      <c r="K4" s="68">
-        <v>0.84662434789951269</v>
-      </c>
-      <c r="L4" s="68">
-        <v>0.96017316017316023</v>
-      </c>
-      <c r="M4" s="66">
-        <v>0.98501720570133977</v>
-      </c>
-      <c r="N4" s="68">
-        <v>0.65022408963585432</v>
-      </c>
-      <c r="O4" s="68">
-        <v>0.86161616161616161</v>
-      </c>
-      <c r="P4" s="66">
-        <v>0.96078431372549011</v>
-      </c>
-      <c r="Q4" s="65">
-        <v>0.52159894794122974</v>
-      </c>
-      <c r="R4" s="68">
-        <v>0.83971483968610605</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="67">
-        <v>0.1955033102704439</v>
-      </c>
-      <c r="E5" s="69">
-        <v>0.67101806239737283</v>
-      </c>
-      <c r="F5" s="67">
-        <v>0.54172043010752691</v>
-      </c>
-      <c r="G5" s="67">
-        <v>0.98100600600600596</v>
-      </c>
-      <c r="H5" s="64">
-        <v>0.62254901960784326</v>
-      </c>
-      <c r="I5" s="67">
-        <v>0.73261329571504141</v>
-      </c>
-      <c r="J5" s="67">
-        <v>0.96</v>
-      </c>
-      <c r="K5" s="69">
-        <v>0.80450783838635898</v>
-      </c>
-      <c r="L5" s="69">
-        <v>0.91515151515151505</v>
-      </c>
-      <c r="M5" s="67">
-        <v>0.99736203031438231</v>
-      </c>
-      <c r="N5" s="69">
-        <v>0.52843137254901962</v>
-      </c>
-      <c r="O5" s="69">
-        <v>0.8</v>
-      </c>
-      <c r="P5" s="67">
-        <v>0.97189542483660118</v>
-      </c>
-      <c r="Q5" s="65">
-        <v>0.3638264103029204</v>
-      </c>
-      <c r="R5" s="69">
-        <v>0.72958675093025149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="s">
-        <v>289</v>
-      </c>
-      <c r="B6" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="66">
-        <v>0.1523757070898305</v>
-      </c>
-      <c r="E6" s="68">
-        <v>0.68839080459770119</v>
-      </c>
-      <c r="F6" s="66">
-        <v>0.5450537634408601</v>
-      </c>
-      <c r="G6" s="66">
-        <v>0.97830330330330317</v>
-      </c>
-      <c r="H6" s="68">
-        <v>0.84260249554367195</v>
-      </c>
-      <c r="I6" s="66">
-        <v>0.73079703755951331</v>
-      </c>
-      <c r="J6" s="68">
-        <v>0.97333333333333338</v>
-      </c>
-      <c r="K6" s="68">
-        <v>0.83962662231996676</v>
-      </c>
-      <c r="L6" s="68">
-        <v>0.95930735930735944</v>
-      </c>
-      <c r="M6" s="68">
-        <v>0.99894825504991935</v>
-      </c>
-      <c r="N6" s="68">
-        <v>0.67270308123249301</v>
-      </c>
-      <c r="O6" s="68">
-        <v>0.8545454545454545</v>
-      </c>
-      <c r="P6" s="66">
-        <v>0.96078431372549011</v>
-      </c>
-      <c r="Q6" s="68">
-        <v>0.55593143479049523</v>
-      </c>
-      <c r="R6" s="68">
-        <v>0.83781458545645027</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="80"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="67">
-        <v>0.16412630661021421</v>
-      </c>
-      <c r="E7" s="69">
-        <v>0.6818555008210182</v>
-      </c>
-      <c r="F7" s="67">
-        <v>0.54516129032258065</v>
-      </c>
-      <c r="G7" s="67">
-        <v>0.97560060060060061</v>
-      </c>
-      <c r="H7" s="69">
-        <v>0.58368983957219256</v>
-      </c>
-      <c r="I7" s="67">
-        <v>0.7345177217421972</v>
-      </c>
-      <c r="J7" s="69">
-        <v>0.96</v>
-      </c>
-      <c r="K7" s="69">
-        <v>0.81678386788578572</v>
-      </c>
-      <c r="L7" s="69">
-        <v>0.93722943722943719</v>
-      </c>
-      <c r="M7" s="69">
-        <v>0.99839652496566011</v>
-      </c>
-      <c r="N7" s="69">
-        <v>0.48593837535014001</v>
-      </c>
-      <c r="O7" s="69">
-        <v>0.84040404040404049</v>
-      </c>
-      <c r="P7" s="67">
-        <v>0.96633986928104565</v>
-      </c>
-      <c r="Q7" s="69">
-        <v>0.3011427534917468</v>
-      </c>
-      <c r="R7" s="69">
-        <v>0.75883885715444976</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="80"/>
-      <c r="B8" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="66">
-        <v>0.17849758470735369</v>
-      </c>
-      <c r="E8" s="68">
-        <v>0.68493431855500819</v>
-      </c>
-      <c r="F8" s="66">
-        <v>0.52182795698924722</v>
-      </c>
-      <c r="G8" s="66">
-        <v>0.97552552552552552</v>
-      </c>
-      <c r="H8" s="68">
-        <v>0.83966131907308372</v>
-      </c>
-      <c r="I8" s="66">
-        <v>0.73731264327279133</v>
-      </c>
-      <c r="J8" s="66">
-        <v>0.96666666666666656</v>
-      </c>
-      <c r="K8" s="68">
-        <v>0.83993935626086136</v>
-      </c>
-      <c r="L8" s="68">
-        <v>0.95930735930735922</v>
-      </c>
-      <c r="M8" s="68">
-        <v>0.99891377229129863</v>
-      </c>
-      <c r="N8" s="68">
-        <v>0.66557422969187674</v>
-      </c>
-      <c r="O8" s="68">
-        <v>0.85353535353535348</v>
-      </c>
-      <c r="P8" s="66">
-        <v>0.96078431372549011</v>
-      </c>
-      <c r="Q8" s="68">
-        <v>0.54787774351532748</v>
-      </c>
-      <c r="R8" s="68">
-        <v>0.83761445944376667</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="81"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="67">
-        <v>0.18448590409968679</v>
-      </c>
-      <c r="E9" s="69">
-        <v>0.66744663382594427</v>
-      </c>
-      <c r="F9" s="67">
-        <v>0.54827956989247306</v>
-      </c>
-      <c r="G9" s="67">
-        <v>0.98100600600600596</v>
-      </c>
-      <c r="H9" s="69">
-        <v>0.61942959001782538</v>
-      </c>
-      <c r="I9" s="67">
-        <v>0.74013401516487387</v>
-      </c>
-      <c r="J9" s="69">
-        <v>0.96</v>
-      </c>
-      <c r="K9" s="69">
-        <v>0.80357543689103894</v>
-      </c>
-      <c r="L9" s="69">
-        <v>0.91212121212121189</v>
-      </c>
-      <c r="M9" s="69">
-        <v>0.99741375445231328</v>
-      </c>
-      <c r="N9" s="69">
-        <v>0.5248459383753501</v>
-      </c>
-      <c r="O9" s="69">
-        <v>0.84646464646464636</v>
-      </c>
-      <c r="P9" s="67">
-        <v>0.97189542483660118</v>
-      </c>
-      <c r="Q9" s="69">
-        <v>0.35369580990386362</v>
-      </c>
-      <c r="R9" s="69">
-        <v>0.74273382140780786</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="82" t="s">
-        <v>290</v>
-      </c>
-      <c r="B10" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="66">
-        <v>0.1523757070898305</v>
-      </c>
-      <c r="E10" s="68">
-        <v>0.68839080459770119</v>
-      </c>
-      <c r="F10" s="66">
-        <v>0.5450537634408601</v>
-      </c>
-      <c r="G10" s="68">
-        <v>0.97830330330330317</v>
-      </c>
-      <c r="H10" s="68">
-        <v>0.84260249554367195</v>
-      </c>
-      <c r="I10" s="66">
-        <v>0.73079703755951331</v>
-      </c>
-      <c r="J10" s="68">
-        <v>0.97333333333333338</v>
-      </c>
-      <c r="K10" s="68">
-        <v>0.83962662231996676</v>
-      </c>
-      <c r="L10" s="68">
-        <v>0.95930735930735944</v>
-      </c>
-      <c r="M10" s="68">
-        <v>0.99894825504991935</v>
-      </c>
-      <c r="N10" s="68">
-        <v>0.67270308123249301</v>
-      </c>
-      <c r="O10" s="68">
-        <v>0.8545454545454545</v>
-      </c>
-      <c r="P10" s="66">
-        <v>0.96078431372549011</v>
-      </c>
-      <c r="Q10" s="68">
-        <v>0.55593143479049523</v>
-      </c>
-      <c r="R10" s="68">
-        <v>0.83781458545645027</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="67">
-        <v>0.15382144045529131</v>
-      </c>
-      <c r="E11" s="69">
-        <v>0.6817323481116585</v>
-      </c>
-      <c r="F11" s="67">
-        <v>0.55505376344086022</v>
-      </c>
-      <c r="G11" s="67">
-        <v>0.97830330330330317</v>
-      </c>
-      <c r="H11" s="69">
-        <v>0.57477718360071306</v>
-      </c>
-      <c r="I11" s="67">
-        <v>0.73643096455651558</v>
-      </c>
-      <c r="J11" s="69">
-        <v>0.96</v>
-      </c>
-      <c r="K11" s="69">
-        <v>0.82284749776284904</v>
-      </c>
-      <c r="L11" s="69">
-        <v>0.92251082251082261</v>
-      </c>
-      <c r="M11" s="69">
-        <v>0.99827583233732331</v>
-      </c>
-      <c r="N11" s="69">
-        <v>0.44579831932773112</v>
-      </c>
-      <c r="O11" s="69">
-        <v>0.78989898989898999</v>
-      </c>
-      <c r="P11" s="67">
-        <v>0.97189542483660118</v>
-      </c>
-      <c r="Q11" s="69">
-        <v>0.28696263377471432</v>
-      </c>
-      <c r="R11" s="69">
-        <v>0.71507382743071279</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
-      <c r="B12" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="68">
-        <v>0.18184973552258671</v>
-      </c>
-      <c r="E12" s="68">
-        <v>0.68493431855500819</v>
-      </c>
-      <c r="F12" s="66">
-        <v>0.52172043010752689</v>
-      </c>
-      <c r="G12" s="66">
-        <v>0.97552552552552552</v>
-      </c>
-      <c r="H12" s="65">
-        <v>0.83966131907308372</v>
-      </c>
-      <c r="I12" s="66">
-        <v>0.7326485628636924</v>
-      </c>
-      <c r="J12" s="68">
-        <v>0.96666666666666656</v>
-      </c>
-      <c r="K12" s="68">
-        <v>0.84025064124838322</v>
-      </c>
-      <c r="L12" s="68">
-        <v>0.96017316017316023</v>
-      </c>
-      <c r="M12" s="68">
-        <v>0.99887928953267802</v>
-      </c>
-      <c r="N12" s="68">
-        <v>0.66677871148459378</v>
-      </c>
-      <c r="O12" s="68">
-        <v>0.85151515151515134</v>
-      </c>
-      <c r="P12" s="66">
-        <v>0.96078431372549011</v>
-      </c>
-      <c r="Q12" s="68">
-        <v>0.5451750408126248</v>
-      </c>
-      <c r="R12" s="68">
-        <v>0.83711453623459564</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="69">
-        <v>0.16508267070554089</v>
-      </c>
-      <c r="E13" s="69">
-        <v>0.67803776683087036</v>
-      </c>
-      <c r="F13" s="67">
-        <v>0.55827956989247307</v>
-      </c>
-      <c r="G13" s="67">
-        <v>0.98370870870870863</v>
-      </c>
-      <c r="H13" s="64">
-        <v>0.61354723707664893</v>
-      </c>
-      <c r="I13" s="67">
-        <v>0.73827367307353198</v>
-      </c>
-      <c r="J13" s="69">
-        <v>0.96</v>
-      </c>
-      <c r="K13" s="69">
-        <v>0.80295480186307411</v>
-      </c>
-      <c r="L13" s="69">
-        <v>0.90735930735930737</v>
-      </c>
-      <c r="M13" s="69">
-        <v>0.99724134065921</v>
-      </c>
-      <c r="N13" s="69">
-        <v>0.48829131652661062</v>
-      </c>
-      <c r="O13" s="69">
-        <v>0.78080808080808084</v>
-      </c>
-      <c r="P13" s="67">
-        <v>0.97189542483660118</v>
-      </c>
-      <c r="Q13" s="67">
-        <v>0.30655269363323051</v>
-      </c>
-      <c r="R13" s="69">
-        <v>0.71022636540097561</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="85" t="s">
-        <v>291</v>
-      </c>
-      <c r="B14" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="68">
-        <v>0.14134912165961011</v>
-      </c>
-      <c r="E14" s="65">
-        <v>0.73434318555008216</v>
-      </c>
-      <c r="F14" s="68">
-        <v>0.57462365591397846</v>
-      </c>
-      <c r="G14" s="68">
-        <v>0.97830330330330317</v>
-      </c>
-      <c r="H14" s="68">
-        <v>0.84260249554367195</v>
-      </c>
-      <c r="I14" s="68">
-        <v>0.74205607476635516</v>
-      </c>
-      <c r="J14" s="68">
-        <v>0.97333333333333338</v>
-      </c>
-      <c r="K14" s="68">
-        <v>0.8470875299943128</v>
-      </c>
-      <c r="L14" s="68">
-        <v>0.95714285714285707</v>
-      </c>
-      <c r="M14" s="68">
-        <v>0.99905170332578153</v>
-      </c>
-      <c r="N14" s="68">
-        <v>0.66796918767507019</v>
-      </c>
-      <c r="O14" s="68">
-        <v>0.86363636363636365</v>
-      </c>
-      <c r="P14" s="66">
-        <v>0.96078431372549011</v>
-      </c>
-      <c r="Q14" s="68">
-        <v>0.52425176854707056</v>
-      </c>
-      <c r="R14" s="68">
-        <v>0.84111506694957028</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="69">
-        <v>8.5763542276226873E-2</v>
-      </c>
-      <c r="E15" s="64">
-        <v>0.71291461412151069</v>
-      </c>
-      <c r="F15" s="69">
-        <v>0.55795698924731185</v>
-      </c>
-      <c r="G15" s="69">
-        <v>0.97282282282282284</v>
-      </c>
-      <c r="H15" s="69">
-        <v>0.56871657754010696</v>
-      </c>
-      <c r="I15" s="69">
-        <v>0.71673426203491442</v>
-      </c>
-      <c r="J15" s="69">
-        <v>0.96666666666666679</v>
-      </c>
-      <c r="K15" s="69">
-        <v>0.83776809812727515</v>
-      </c>
-      <c r="L15" s="69">
-        <v>0.93116883116883109</v>
-      </c>
-      <c r="M15" s="69">
-        <v>0.99862066884302292</v>
-      </c>
-      <c r="N15" s="69">
-        <v>0.4599579831932773</v>
-      </c>
-      <c r="O15" s="69">
-        <v>0.72424242424242424</v>
-      </c>
-      <c r="P15" s="67">
-        <v>0.96633986928104565</v>
-      </c>
-      <c r="Q15" s="69">
-        <v>0.23913023762017049</v>
-      </c>
-      <c r="R15" s="69">
-        <v>0.78369284391313621</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
-      <c r="B16" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="68">
-        <v>0.18352667148577789</v>
-      </c>
-      <c r="E16" s="68">
-        <v>0.72018062397372751</v>
-      </c>
-      <c r="F16" s="66">
-        <v>0.54806451612903229</v>
-      </c>
-      <c r="G16" s="66">
-        <v>0.97552552552552552</v>
-      </c>
-      <c r="H16" s="68">
-        <v>0.83368983957219245</v>
-      </c>
-      <c r="I16" s="68">
-        <v>0.74016046552636217</v>
-      </c>
-      <c r="J16" s="68">
-        <v>0.96666666666666656</v>
-      </c>
-      <c r="K16" s="68">
-        <v>0.84848625072647044</v>
-      </c>
-      <c r="L16" s="68">
-        <v>0.95974025974025978</v>
-      </c>
-      <c r="M16" s="68">
-        <v>0.99905170332578153</v>
-      </c>
-      <c r="N16" s="68">
-        <v>0.66438375350140055</v>
-      </c>
-      <c r="O16" s="68">
-        <v>0.85656565656565653</v>
-      </c>
-      <c r="P16" s="66">
-        <v>0.96078431372549011</v>
-      </c>
-      <c r="Q16" s="68">
-        <v>0.44672592055142391</v>
-      </c>
-      <c r="R16" s="68">
-        <v>0.84036549116465231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="87"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="69">
-        <v>0.1123656099044209</v>
-      </c>
-      <c r="E17" s="69">
-        <v>0.71648604269293936</v>
-      </c>
-      <c r="F17" s="67">
-        <v>0.56150537634408604</v>
-      </c>
-      <c r="G17" s="67">
-        <v>0.97822822822822819</v>
-      </c>
-      <c r="H17" s="69">
-        <v>0.67611408199643508</v>
-      </c>
-      <c r="I17" s="69">
-        <v>0.68675718568153776</v>
-      </c>
-      <c r="J17" s="67">
-        <v>0.96666666666666679</v>
-      </c>
-      <c r="K17" s="69">
-        <v>0.8396333878639336</v>
-      </c>
-      <c r="L17" s="69">
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="M17" s="69">
-        <v>0.99848273483537597</v>
-      </c>
-      <c r="N17" s="69">
-        <v>0.45997198879551832</v>
-      </c>
-      <c r="O17" s="69">
-        <v>0.72626262626262628</v>
-      </c>
-      <c r="P17" s="67">
-        <v>0.96633986928104565</v>
-      </c>
-      <c r="Q17" s="69">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="R17" s="69">
-        <v>0.77709097856960374</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="59"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="59"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>